--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo Dominio Enriquecido ConjuntosResidenciales.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo Dominio Enriquecido ConjuntosResidenciales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1FB6B0D-95BC-49BE-96ED-6855AEA1E3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E33FC-A16D-4425-81BB-3A079F78669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8976" yWindow="0" windowWidth="14160" windowHeight="12336" firstSheet="5" activeTab="7" xr2:uid="{68A10BBB-2615-4E9A-8951-B88AC10A8A21}"/>
+    <workbookView xWindow="8844" yWindow="0" windowWidth="14292" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{68A10BBB-2615-4E9A-8951-B88AC10A8A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2188,7 +2188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="161">
   <si>
     <t>Referenciado</t>
   </si>
@@ -2358,39 +2358,21 @@
     <t>Quitar espacios en blanco al inicio, al final, y entre palabras.</t>
   </si>
   <si>
-    <t>Representa el nombre de una zona común especifica.</t>
-  </si>
-  <si>
     <t>descripcion</t>
   </si>
   <si>
-    <t>Representa la descripción que tiene una zona común</t>
-  </si>
-  <si>
     <t>Sólo números enteros</t>
   </si>
   <si>
-    <t>Representa el número de residentes que pueden ingresar en una zona común.</t>
-  </si>
-  <si>
-    <t>tiempoUsoDia</t>
-  </si>
-  <si>
     <t>No puede ser mayor a 24</t>
   </si>
   <si>
-    <t>Representa el tiempo de uso permitido por residente de una zona común.</t>
-  </si>
-  <si>
     <t>normas</t>
   </si>
   <si>
     <t>texto</t>
   </si>
   <si>
-    <t>Representa el contenido de las normas de una zona común.</t>
-  </si>
-  <si>
     <t>conjuntoResidencial</t>
   </si>
   <si>
@@ -2406,12 +2388,6 @@
     <t>Atributos</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre de zona común único </t>
-  </si>
-  <si>
-    <t>No es posible tener más de una zona común con el mismo nombre para el mismo conjunto residencial</t>
-  </si>
-  <si>
     <t>Responsabilidad</t>
   </si>
   <si>
@@ -2454,169 +2430,247 @@
     <t>Reponsabilidad 4</t>
   </si>
   <si>
-    <t>Identifica de forma unívoca a cada uno de los conjuntos residenciales.</t>
-  </si>
-  <si>
-    <t>Representa el nombre de un conjunto residencial.</t>
-  </si>
-  <si>
-    <t>Representa la descripción que tiene un conjunto residencial.</t>
-  </si>
-  <si>
-    <t>dirección</t>
-  </si>
-  <si>
     <t>alfanumerico</t>
   </si>
   <si>
     <t>Letras, espacios, numeros y caracteres especiales</t>
   </si>
   <si>
-    <t xml:space="preserve">Representa la ubicación exacta del conjunto residencial dentro de una ciudad. </t>
-  </si>
-  <si>
     <t>ciudad</t>
   </si>
   <si>
     <t>Solo letras y espacios</t>
   </si>
   <si>
-    <t>Representa la ubicación dentro de un conjunto residencial dentro de un pais.</t>
-  </si>
-  <si>
     <t>departamento</t>
   </si>
   <si>
-    <t>Representa el departamento dentro de un pais donde se encuentra ubicado el conjunto residencial.</t>
-  </si>
-  <si>
-    <t>contacto de porteria</t>
-  </si>
-  <si>
     <t>Solo números</t>
   </si>
   <si>
-    <t>Representa el número de contacto de la porteria de un conjunto residencial.</t>
-  </si>
-  <si>
     <t>administrador</t>
   </si>
   <si>
-    <t>Representa al o los administradores de dicho conjunto residencial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identificador y nombre </t>
-  </si>
-  <si>
-    <t>No es posible tener más de un conjunto residencial con el mismo nombre e identificador</t>
-  </si>
-  <si>
-    <t>capacidad personas</t>
-  </si>
-  <si>
     <t>apellido</t>
   </si>
   <si>
-    <t>solo letras y espacios</t>
-  </si>
-  <si>
-    <t>Representa el nombre de un administrador del conjunto residencial.</t>
-  </si>
-  <si>
-    <t>Representa el apellido de un administrador del conjunto residencial.</t>
-  </si>
-  <si>
     <t>solo números</t>
   </si>
   <si>
-    <t>Representa el número de un administrador de un conjunto residencial.</t>
-  </si>
-  <si>
-    <t>correo electronico</t>
-  </si>
-  <si>
     <t>letras, números, espacios y caracteres especiales.</t>
   </si>
   <si>
-    <t>Representa el correo electronico de un administrador de un conjunto residencial.</t>
-  </si>
-  <si>
     <t>contraseña</t>
   </si>
   <si>
-    <t>Representa la contraseña de un administrador de un conjunto residencial.</t>
-  </si>
-  <si>
     <t>número de contacto</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre, número de contacto y correo electronico </t>
-  </si>
-  <si>
     <t>tipoZonaInmueble</t>
   </si>
   <si>
     <t>Sólo letras</t>
   </si>
   <si>
-    <t>Representa el tipo de zona en la que se encuentra un inmueble dentro de un conjunto residencial.</t>
-  </si>
-  <si>
-    <t>Identifica de forma unívoca a cada una de las zonas tipo inmueble dentro de un conjunto residencial.</t>
-  </si>
-  <si>
     <t>numeroZonaInmueble</t>
   </si>
   <si>
     <t>Quitar espacios en blanco al inicio y al final.</t>
   </si>
   <si>
-    <t>Representa el número del tipo de zona comun dentro de un conjunto residencial.</t>
-  </si>
-  <si>
     <t>tipoZonaInmueble, númeroZonaInmueble y conjunto residencial.</t>
   </si>
   <si>
-    <t>No es posible tener más de una zona inmueble con un mismo nombre, numero zona inmueble y un conjunto residencial.</t>
-  </si>
-  <si>
-    <t>No es posible tener más de un administrador con el mismo nombre, número de contacto y correo electronico.</t>
-  </si>
-  <si>
-    <t>Identifica de forma unívoca a cada uno de los administradores del conjunto residencial.</t>
-  </si>
-  <si>
-    <t>Identifica de forma unívoca a cada una de las zonas comunes de un conjunto residencial.</t>
-  </si>
-  <si>
     <t>tipoInmueble</t>
   </si>
   <si>
     <t>Casa/Apartamento, dónde cada uno representa el tipo de inmueble que es el inmueble dónde habitan los residentes.</t>
   </si>
   <si>
-    <t>Representa el tipo de inmueble que es un inmueble.</t>
-  </si>
-  <si>
     <t>numeroVivienda</t>
   </si>
   <si>
     <t>Entero</t>
   </si>
   <si>
-    <t>Representa el numero que identifica el inmueble dentro de una misma zona Inmueble.</t>
-  </si>
-  <si>
     <t>Representa la zona dónde se encuentran varios inmuebles.</t>
   </si>
   <si>
-    <t>Identificador de inmueble</t>
-  </si>
-  <si>
-    <t>No es posible tener más de un inmueble con la misma zona inmueble, el mismo tipo inmueble, el mismo numero de vivienda, con el mismo identificador.</t>
-  </si>
-  <si>
-    <t>Identifica de forma unívoca a cada uno de los inmuebles dentro de una zona común.</t>
+    <t>tipoDocumento</t>
+  </si>
+  <si>
+    <t>numeroDocumento</t>
+  </si>
+  <si>
+    <t>Sólo números</t>
+  </si>
+  <si>
+    <t>Quitar espacios en blanco al inicio, al final, y entre números.</t>
+  </si>
+  <si>
+    <t>Es un dato que hace que cada administrador sea único.</t>
+  </si>
+  <si>
+    <t>Este dato representa el tipo de documento que tiene  un administrador.</t>
+  </si>
+  <si>
+    <t>Este dato representa el numero del documento de un administrador.</t>
+  </si>
+  <si>
+    <t>Este dato representa el número de contacto de un administrador.</t>
+  </si>
+  <si>
+    <t>Este dato representa la contraseña del administrador.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el email del administrador.</t>
+  </si>
+  <si>
+    <t>Este dato representa el apellido del administrador.</t>
+  </si>
+  <si>
+    <t>Este dato representa el nombre del administrador.</t>
+  </si>
+  <si>
+    <t>Combinaciones única 1</t>
+  </si>
+  <si>
+    <t>No puede haber más de un administrador con el mismo tipo de documento y el mismo numero de documento.</t>
+  </si>
+  <si>
+    <t>Tipo de documento y número de documento de un administrador</t>
+  </si>
+  <si>
+    <t>numeroContacto</t>
+  </si>
+  <si>
+    <t>Combinaciones única 2</t>
+  </si>
+  <si>
+    <t>No puede haber más de un administrador con el mismo numero de contacto.</t>
+  </si>
+  <si>
+    <t>No puede haber más de un administrador con el mismo correo electrónico .</t>
+  </si>
+  <si>
+    <t>correoElectronico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de contacto de un administrador </t>
+  </si>
+  <si>
+    <t>Correo electronico de un administrador</t>
+  </si>
+  <si>
+    <t>C+I17+I15:K19+I15:L19+I17+I15:K19</t>
+  </si>
+  <si>
+    <t>contactoRecepcion</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>Es un dato que hace que cada conjunto residencial sea único.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa al nombre de un conjunto residencial</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el formato de texto de una dirección de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el ciudad dónde se encuentra un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el departamento dónde se encuentra el conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el numero de contacto de la recepción del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa la descripción general que tiene el conjunto residencial .</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un conjunto residencial con el mismo nombre.</t>
+  </si>
+  <si>
+    <t>Nombre de un conjunto residencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacto de recepción de un conjunto residencial </t>
+  </si>
+  <si>
+    <t>No es posible tener más de un conjunto residencial con el mismo contactoRecepcion.</t>
+  </si>
+  <si>
+    <t>Combinación única 1</t>
+  </si>
+  <si>
+    <t>Combinación única 2</t>
+  </si>
+  <si>
+    <t>Es un dato que hace que cada zona imueble sea única.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa al nombre de una zona inmueble.</t>
+  </si>
+  <si>
+    <t>Es el atributo que representa el numero que pertenece a un tipo de zona inmueble .</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un tipo zona inmueble con el mismo numero zona inmueble  para un mismo conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Es un dato que hace que cada inmueble sea único.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa al nombre de un inmueble Casa, apartamento ETC.</t>
+  </si>
+  <si>
+    <t>Este atributo representa el número especifico del inmueble.</t>
+  </si>
+  <si>
+    <t>No es posible tener mas de un tipo inmueble que tenga el mismo número de vivienda más la misma zona inmueble.</t>
+  </si>
+  <si>
+    <t>Ubicación unica de un inmueble</t>
+  </si>
+  <si>
+    <t>capacidadPersonas</t>
+  </si>
+  <si>
+    <t>tiempoUso</t>
+  </si>
+  <si>
+    <t>unidadTiempoUso</t>
+  </si>
+  <si>
+    <t>Es un dato que hace que cada zona común sea única.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa al nombre de una zona comun.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el formato de texto de una descripción para la zona común.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el número de personas que admite una zona común.</t>
+  </si>
+  <si>
+    <t>Este es le dato que representa el tiempo de uso por numero entero de un residente</t>
+  </si>
+  <si>
+    <t>Es un dato que representa la unidad de tiempo de uso de una zona comun para un residente.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el texto de normas que puede tener la zona común</t>
+  </si>
+  <si>
+    <t>Nombre de zona común y el conjunto residencial</t>
+  </si>
+  <si>
+    <t>No es posible tener más de una zona común con el mismo nombre para un mismo conjunto residencial.</t>
   </si>
 </sst>
 </file>
@@ -2747,7 +2801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -3103,70 +3157,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3179,120 +3177,267 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3302,203 +3447,53 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3914,24 +3909,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3939,17 +3934,17 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3959,7 +3954,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3969,7 +3964,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3979,7 +3974,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4026,105 +4021,105 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="12"/>
+    <col min="1" max="1" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="19" t="str">
+      <c r="D3" s="69" t="str">
         <f>$B$1</f>
         <v>Residentes</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="70"/>
     </row>
     <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="70"/>
     </row>
     <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="70"/>
     </row>
     <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="71"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4146,762 +4141,766 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52572D8B-2E5B-40A3-93D4-C6D8A4DFB5A3}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="93" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView topLeftCell="A6" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="12"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="29" t="str">
+      <c r="B2" s="93" t="str">
         <f>'Listado Objetos Dominio'!A3</f>
         <v>ConjuntoResidencial</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30" t="str">
+      <c r="B3" s="94" t="str">
         <f>'Listado Objetos Dominio'!B3</f>
         <v>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="34" t="str">
+      <c r="R4" s="24" t="str">
         <f>A21</f>
         <v>Reponsabilidad 1</v>
       </c>
-      <c r="S4" s="35" t="str">
+      <c r="S4" s="25" t="str">
         <f>A22</f>
         <v>Reponsabilidad 2</v>
       </c>
-      <c r="T4" s="36" t="str">
+      <c r="T4" s="26" t="str">
         <f>A23</f>
         <v>Reponsabilidad 3</v>
       </c>
-      <c r="U4" s="37" t="str">
+      <c r="U4" s="27" t="str">
         <f>A24</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="29">
         <v>32</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="29">
         <v>32</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="39" t="s">
+      <c r="M5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="39" t="s">
+      <c r="O5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="46"/>
+      <c r="Q5" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
     </row>
     <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="29">
         <v>3</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="29">
         <v>50</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="41" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="39" t="s">
+      <c r="L6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46"/>
+      <c r="O6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
     </row>
     <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="39">
+      <c r="A7" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="29">
         <v>14</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="29">
         <v>200</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="41" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="39" t="s">
+      <c r="L7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
+      <c r="P7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29">
+        <v>85</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+    </row>
+    <row r="9" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>30</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="R9" s="33"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36"/>
+    </row>
+    <row r="10" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="29">
+        <v>7</v>
+      </c>
+      <c r="D10" s="29">
+        <v>10</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" s="33"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="36"/>
+    </row>
+    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <v>50</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="36"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="36"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="E14" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="39">
-        <v>1</v>
-      </c>
-      <c r="D8" s="39">
-        <v>85</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46"/>
-    </row>
-    <row r="9" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="39" t="s">
+      <c r="E15" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="39">
-        <v>1</v>
-      </c>
-      <c r="D9" s="39">
-        <v>30</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="R9" s="43"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="46"/>
-    </row>
-    <row r="10" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="39">
-        <v>7</v>
-      </c>
-      <c r="D10" s="39">
-        <v>10</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="R10" s="43"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="46"/>
-    </row>
-    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="39">
-        <v>1</v>
-      </c>
-      <c r="D11" s="39">
-        <v>50</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="43"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="46"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" s="43"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="46"/>
-    </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+    </row>
+    <row r="16" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="109"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="113"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="S19" s="91"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="89"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
+      <c r="K20" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61" t="s">
+      <c r="S20" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61" t="s">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="45"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="51"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="S19" s="62"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65" t="s">
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="57"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="S20" s="66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="70"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="80"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="90"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="99"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="P19:Q19"/>
+  <mergeCells count="30">
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="L20:O20"/>
     <mergeCell ref="A1:Q1"/>
@@ -4910,6 +4909,28 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{193F65CD-468D-4EE9-B635-8067A5B8EAA9}"/>
@@ -4924,8 +4945,8 @@
     <hyperlink ref="A1:Q1" location="'Listado Objetos Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{CE0DE937-8227-40BE-8830-138F14C9D484}"/>
     <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{549D6AF5-4603-46D1-99A2-1E38C6184BC2}"/>
     <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{5CD680C6-1665-4648-84F6-72D901F7A828}"/>
-    <hyperlink ref="C16" location="ConjuntoResidencial!A5" display="identificador" xr:uid="{38C0BA69-4D7A-48FF-89E5-6B159C1170DE}"/>
-    <hyperlink ref="C17" location="ConjuntoResidencial!A6" display="nombre" xr:uid="{E3CE49C9-93B6-443B-B14A-591822BFE047}"/>
+    <hyperlink ref="C16" location="ConjuntoResidencial!A6" display="nombre" xr:uid="{E3CE49C9-93B6-443B-B14A-591822BFE047}"/>
+    <hyperlink ref="G16:G17" location="ConjuntoResidencial!A10" display="contactoRecepcion" xr:uid="{69FF8ABB-0601-480F-98C0-E49036427897}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4934,731 +4955,772 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC27993B-5D8F-4859-AF5A-93E173C14E9E}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="12"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="29" t="str">
+      <c r="B2" s="93" t="str">
         <f>'Listado Objetos Dominio'!A4</f>
         <v>ZonaComun</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30" t="str">
+      <c r="B3" s="94" t="str">
         <f>'Listado Objetos Dominio'!B4</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y poder usarlos.</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="34" t="str">
-        <f>A20</f>
+      <c r="R4" s="24" t="str">
+        <f>A21</f>
         <v>Reponsabilidad 1</v>
       </c>
-      <c r="S4" s="35" t="str">
-        <f>A21</f>
+      <c r="S4" s="25" t="str">
+        <f>A22</f>
         <v>Reponsabilidad 2</v>
       </c>
-      <c r="T4" s="36" t="str">
-        <f>A22</f>
+      <c r="T4" s="26" t="str">
+        <f>A23</f>
         <v>Reponsabilidad 3</v>
       </c>
-      <c r="U4" s="37" t="str">
-        <f>A23</f>
+      <c r="U4" s="27" t="str">
+        <f>A24</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="29">
         <v>32</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="29">
         <v>32</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="39" t="s">
+      <c r="M5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="39" t="s">
+      <c r="O5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="46"/>
+      <c r="Q5" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
     </row>
     <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="29">
         <v>50</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="41" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="39" t="s">
+      <c r="L6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="40" t="s">
+      <c r="O6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
+    </row>
+    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46"/>
-    </row>
-    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="B7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>50</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+    </row>
+    <row r="9" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="R9" s="33"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="R10" s="33"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="36"/>
+    </row>
+    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="39">
-        <v>50</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40" t="s">
+      <c r="D11" s="29">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="41" t="s">
+      <c r="J11" s="29"/>
+      <c r="K11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="39" t="s">
+      <c r="L11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O11" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="39" t="s">
+      <c r="P11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="36"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="M12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46"/>
-    </row>
-    <row r="9" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="O12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" s="33"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="36"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="99"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="R9" s="43"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="46"/>
-    </row>
-    <row r="10" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="39">
-        <v>1</v>
-      </c>
-      <c r="D10" s="39">
-        <v>5000</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="40" t="s">
+    </row>
+    <row r="18" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="R10" s="43"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="46"/>
-    </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="40" t="s">
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="43"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="46"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="S19" s="91"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="89"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="55" t="s">
+      <c r="K20" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
+      <c r="Q20" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61" t="s">
+      <c r="S20" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61" t="s">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="45"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="51"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="S18" s="62"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65" t="s">
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="57"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q19" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="R19" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="S19" s="66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="70"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="80"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="90"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="99"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="L22:O22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:G19"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{B8AB2723-0DBB-4F87-B341-FF92A393E7BB}"/>
-    <hyperlink ref="I23" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{7B287CD9-7461-407E-8430-DC4157DE9162}"/>
+    <hyperlink ref="I24" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{7B287CD9-7461-407E-8430-DC4157DE9162}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C53D74EF-792C-47CF-B457-9922AC04B815}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{A47A54B4-72BE-487E-9F79-315829853B30}"/>
     <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{5A09005C-1BAB-4872-9EB4-A1109E95BA3E}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{1333C857-9060-49DA-99D0-4C374B03287A}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{AFDE84C3-0A38-4CAC-8D0E-DAEE4574BB22}"/>
-    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{0EC787C4-E5F0-4766-9684-49574A180693}"/>
+    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{1333C857-9060-49DA-99D0-4C374B03287A}"/>
+    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{AFDE84C3-0A38-4CAC-8D0E-DAEE4574BB22}"/>
+    <hyperlink ref="A24:B24" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{0EC787C4-E5F0-4766-9684-49574A180693}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{4C33DCA4-E2E2-41EA-8C75-4F0463BB787D}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos Dominio'!A4" display="&lt;-Volver al inicio" xr:uid="{AD5B3A32-FF42-4C2C-9AD5-DAE19B42C01D}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{72894232-10BF-4774-9E71-DBE230ADF481}"/>
+    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{72894232-10BF-4774-9E71-DBE230ADF481}"/>
     <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{9ADA5DD0-4793-4FC0-BF21-326B04F1550E}"/>
-    <hyperlink ref="C15" location="ZonaComun!A6" display="nombre" xr:uid="{7759D88B-68CA-4CF5-8D37-D7D8BC920400}"/>
-    <hyperlink ref="C16" location="ZonaComun!A11" display="conjuntoResidencial" xr:uid="{6F635A0B-7616-426D-8D4E-F59F9749F8F0}"/>
+    <hyperlink ref="C16" location="ZonaComun!A6" display="nombre" xr:uid="{7759D88B-68CA-4CF5-8D37-D7D8BC920400}"/>
+    <hyperlink ref="C17" location="ZonaComun!A12" display="conjuntoResidencial" xr:uid="{6F635A0B-7616-426D-8D4E-F59F9749F8F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5667,706 +5729,867 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F029C1A4-1158-48DA-9920-018E5820E9AF}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="12"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="29" t="str">
+      <c r="B2" s="93" t="str">
         <f>'Listado Objetos Dominio'!A5</f>
         <v>Administrador</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30" t="str">
+      <c r="B3" s="94" t="str">
         <f>'Listado Objetos Dominio'!B5</f>
         <v>Objeto de dominio que representa el Administrador encargado de hacer la creación o gestión de las zonas comunes y la gestión de residentes y sus respectivas reservas en caso de ser necesario.</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="34" t="str">
-        <f>A20</f>
+      <c r="R4" s="24" t="str">
+        <f>A23</f>
         <v>Reponsabilidad 1</v>
       </c>
-      <c r="S4" s="35" t="str">
-        <f>A21</f>
+      <c r="S4" s="25" t="str">
+        <f>A24</f>
         <v>Reponsabilidad 2</v>
       </c>
-      <c r="T4" s="36" t="str">
-        <f>A22</f>
+      <c r="T4" s="26" t="str">
+        <f>A25</f>
         <v>Reponsabilidad 3</v>
       </c>
-      <c r="U4" s="37" t="str">
-        <f>A23</f>
+      <c r="U4" s="27" t="str">
+        <f>A26</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="29">
         <v>32</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="29">
         <v>32</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="39" t="s">
+      <c r="M5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="39" t="s">
+      <c r="O5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="46"/>
+      <c r="Q5" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
     </row>
     <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="29">
         <v>50</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="41" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="39" t="s">
+      <c r="L6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="40" t="s">
+      <c r="O6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
+    </row>
+    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>50</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+    </row>
+    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29">
+        <v>50</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+    </row>
+    <row r="9" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>20</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" s="33"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36"/>
+    </row>
+    <row r="10" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="29">
+        <v>7</v>
+      </c>
+      <c r="D10" s="29">
+        <v>10</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="R10" s="33"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="36"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="29">
+        <v>11</v>
+      </c>
+      <c r="D11" s="29">
+        <v>100</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="36"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="29">
+        <v>8</v>
+      </c>
+      <c r="D12" s="29">
+        <v>30</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46"/>
-    </row>
-    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="39" t="s">
+      <c r="R12" s="33"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="36"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="E15" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="I15" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="39">
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>50</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
-    </row>
-    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="E16" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="39">
-        <v>7</v>
-      </c>
-      <c r="D8" s="39">
-        <v>10</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="39">
-        <v>11</v>
-      </c>
-      <c r="D9" s="39">
-        <v>100</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" s="43"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="46"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="39">
-        <v>8</v>
-      </c>
-      <c r="D10" s="39">
-        <v>30</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="R10" s="43"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="46"/>
-    </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="G17" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="109" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="109"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="109"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="109"/>
+    </row>
+    <row r="19" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="111"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="109"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="109"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="S21" s="91"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="105"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
+      <c r="K22" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61" t="s">
+      <c r="S22" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61" t="s">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61" t="s">
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="45"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="51"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="S18" s="62"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65" t="s">
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="57"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q19" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="R19" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="S19" s="66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="70"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="80"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="90"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="99"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
+  <mergeCells count="34">
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="R21:S21"/>
     <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P21:Q21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:G19"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="L26:O26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{B1A972F6-B36A-42D4-994E-AD97A6BC793F}"/>
-    <hyperlink ref="I23" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{B2833232-3087-4CC5-9F65-5F91295FD041}"/>
+    <hyperlink ref="I26" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{B2833232-3087-4CC5-9F65-5F91295FD041}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{2602E3AA-488D-496D-B84A-58176DAA45FC}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{23273231-720A-495B-950C-490FE40A20BD}"/>
     <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{ECF4DB54-1574-413B-B4EC-30E1616EA122}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{374EA084-0C1C-4635-9F79-062A62FDB800}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{7733FCBC-EC24-4B03-AC2D-BD3B83C7FD21}"/>
-    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{D2ABFF14-D073-43F0-B29F-174543FE771B}"/>
+    <hyperlink ref="A24:B24" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{374EA084-0C1C-4635-9F79-062A62FDB800}"/>
+    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{7733FCBC-EC24-4B03-AC2D-BD3B83C7FD21}"/>
+    <hyperlink ref="A26:B26" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{D2ABFF14-D073-43F0-B29F-174543FE771B}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{7A4CF14C-50FF-4188-A9E5-F22C58614639}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{F7D16D79-2428-4319-9004-F316641697EF}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{9636F8D8-52CB-489F-80BB-96295766719C}"/>
+    <hyperlink ref="A25:B25" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{9636F8D8-52CB-489F-80BB-96295766719C}"/>
     <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{6DFA98AB-2CF3-402E-A15F-F08442F8328C}"/>
-    <hyperlink ref="C14" location="Administrador!A6" display="nombre" xr:uid="{2F1DD130-3A4C-49C1-8A8D-F23A908D24D4}"/>
-    <hyperlink ref="C16" location="Administrador!A9" display="correo electronico" xr:uid="{E22E437A-3654-45BF-BF03-EF869FE4A48A}"/>
-    <hyperlink ref="C15" location="Administrador!A8" display="número de contacto" xr:uid="{D65643F3-37D4-4CFD-A057-0B0D1C2C4FFC}"/>
+    <hyperlink ref="C19" location="Administrador!A9" display="correo electronico" xr:uid="{E22E437A-3654-45BF-BF03-EF869FE4A48A}"/>
+    <hyperlink ref="C17" location="Administrador!A8" display="número de contacto" xr:uid="{D65643F3-37D4-4CFD-A057-0B0D1C2C4FFC}"/>
+    <hyperlink ref="G17" location="Administrador!A8" display="número de contacto" xr:uid="{F7274207-A103-4D17-8C81-6D6263B1168D}"/>
+    <hyperlink ref="K17" location="Administrador!A8" display="número de contacto" xr:uid="{898E3821-1DEF-4978-AA45-468D2B06CB4F}"/>
+    <hyperlink ref="G17:G19" location="Administrador!A10" display="número de contacto" xr:uid="{648698B8-6C18-4EA4-8D4A-0EF83EB4FA0F}"/>
+    <hyperlink ref="K17:K19" location="Administrador!A11" display="correoElectronico" xr:uid="{E463ABBA-82E8-4591-91D8-C7F754CC49E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6378,580 +6601,563 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="12"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="29" t="str">
+      <c r="B2" s="93" t="str">
         <f>'Listado Objetos Dominio'!A6</f>
         <v>ZonaInmueble</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30" t="str">
+      <c r="B3" s="94" t="str">
         <f>'Listado Objetos Dominio'!B6</f>
         <v>Objeto de dominio que representa una zona de inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (torre, bloque, lote) que comparten una ubicación fisica y caracteristicas comunes dentro del conjunto.</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="34" t="str">
+      <c r="R4" s="24" t="str">
         <f>A18</f>
         <v>Reponsabilidad 1</v>
       </c>
-      <c r="S4" s="35" t="str">
+      <c r="S4" s="25" t="str">
         <f>A19</f>
         <v>Reponsabilidad 2</v>
       </c>
-      <c r="T4" s="36" t="str">
+      <c r="T4" s="26" t="str">
         <f>A20</f>
         <v>Reponsabilidad 3</v>
       </c>
-      <c r="U4" s="37" t="str">
+      <c r="U4" s="27" t="str">
         <f>A21</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="29">
         <v>32</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="29">
         <v>32</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="39" t="s">
+      <c r="M5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="39" t="s">
+      <c r="O5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="46"/>
+      <c r="Q5" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
     </row>
     <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="29">
         <v>5</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="29">
         <v>6</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="41" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="39" t="s">
+      <c r="L6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46"/>
+      <c r="O6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
     </row>
     <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="29">
         <v>20</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="39" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
+      <c r="O7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42" t="s">
+      <c r="A8" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="39" t="s">
+      <c r="M8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46"/>
+      <c r="O8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
     </row>
     <row r="9" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
+      <c r="A10" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>71</v>
+      <c r="C11" s="40" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>121</v>
+      <c r="A12" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="104"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102" t="s">
-        <v>125</v>
+      <c r="A13" s="103"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="64" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="105"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
-        <v>67</v>
+      <c r="A14" s="104"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" s="91"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="89"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61" t="s">
+      <c r="S17" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61" t="s">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="45"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61" t="s">
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="51"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="S16" s="62"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65" t="s">
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="57"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="S17" s="66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="70"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="80"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="90"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="99"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:G17"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="A1:Q1"/>
@@ -6960,6 +7166,23 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:G17"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{00F0F8F7-DC0F-4454-B174-288E79B7BE78}"/>
@@ -6987,568 +7210,552 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DC4352-D389-4296-8885-24C883779FA5}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="12"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="29" t="str">
+      <c r="B2" s="93" t="str">
         <f>'Listado Objetos Dominio'!A7</f>
         <v>Inmueble</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30" t="str">
+      <c r="B3" s="94" t="str">
         <f>'Listado Objetos Dominio'!B7</f>
         <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="34" t="str">
+      <c r="R4" s="24" t="str">
         <f>A19</f>
         <v>Reponsabilidad 1</v>
       </c>
-      <c r="S4" s="35" t="str">
+      <c r="S4" s="25" t="str">
         <f>A20</f>
         <v>Reponsabilidad 2</v>
       </c>
-      <c r="T4" s="36" t="str">
+      <c r="T4" s="26" t="str">
         <f>A21</f>
         <v>Reponsabilidad 3</v>
       </c>
-      <c r="U4" s="37" t="str">
+      <c r="U4" s="27" t="str">
         <f>A22</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="29">
         <v>32</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="29">
         <v>32</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="39" t="s">
+      <c r="M5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="39" t="s">
+      <c r="O5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="46"/>
+      <c r="Q5" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
     </row>
     <row r="6" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="29">
         <v>20</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="39" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46"/>
+      <c r="O6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="39" t="s">
+      <c r="A7" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>50</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
+      <c r="O7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46"/>
-    </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+    </row>
     <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
+      <c r="A10" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="109" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
-        <v>71</v>
+      <c r="C11" s="39" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="111" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="112" t="s">
-        <v>49</v>
+        <v>148</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="109" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="112" t="s">
-        <v>133</v>
-      </c>
+      <c r="A13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="109"/>
     </row>
     <row r="14" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116" t="s">
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="108" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="108" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" s="91"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="89"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61" t="s">
+      <c r="S18" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61" t="s">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61" t="s">
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="45"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="51"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="S17" s="62"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65" t="s">
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="57"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q18" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="S18" s="66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="70"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="80"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="90"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="99"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="P17:Q17"/>
+  <mergeCells count="26">
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="A1:Q1"/>
@@ -7557,6 +7764,24 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E9339FF0-C25B-4ACF-BE04-E905DF5A13F0}"/>
@@ -7571,9 +7796,8 @@
     <hyperlink ref="A1:Q1" location="'Listado Objetos Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{5A7607C3-0389-4B95-AB93-7F28B22319AA}"/>
     <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{DE17DB07-7B59-4592-8688-4B9A5349E2D3}"/>
     <hyperlink ref="C15" location="Inmueble!A8" display="ZonaInmueble" xr:uid="{C571430A-8ECA-413C-A66B-DDD9426F086A}"/>
-    <hyperlink ref="C12" location="Inmueble!A5" display="identificador" xr:uid="{660FE0A0-2331-4083-A99E-DC518D8EE8ED}"/>
-    <hyperlink ref="C13" location="Inmueble!A6" display="tipoInmueble" xr:uid="{039BA121-0EF3-44F9-94D9-D25A280F037D}"/>
     <hyperlink ref="C14" location="Inmueble!A7" display="numeroVivienda" xr:uid="{B7B3829C-DC97-40A3-AF96-5812FAD0D9A9}"/>
+    <hyperlink ref="C12" location="Inmueble!A6" display="tipoInmueble" xr:uid="{039BA121-0EF3-44F9-94D9-D25A280F037D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo Dominio Enriquecido ConjuntosResidenciales.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo Dominio Enriquecido ConjuntosResidenciales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E33FC-A16D-4425-81BB-3A079F78669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E617EF-0650-403E-AC47-26790B32D791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8844" yWindow="0" windowWidth="14292" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{68A10BBB-2615-4E9A-8951-B88AC10A8A21}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{68A10BBB-2615-4E9A-8951-B88AC10A8A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" state="hidden" r:id="rId1"/>
@@ -3348,6 +3348,15 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3369,6 +3378,66 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3393,51 +3462,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3469,30 +3493,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3909,10 +3909,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4032,11 +4032,11 @@
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -4062,7 +4062,7 @@
       <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="69" t="str">
+      <c r="D3" s="72" t="str">
         <f>$B$1</f>
         <v>Residentes</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="70"/>
+      <c r="D4" s="73"/>
     </row>
     <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -4089,7 +4089,7 @@
       <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="73"/>
     </row>
     <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -4101,7 +4101,7 @@
       <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="70"/>
+      <c r="D6" s="73"/>
     </row>
     <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
@@ -4113,7 +4113,7 @@
       <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="71"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
@@ -4141,8 +4141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52572D8B-2E5B-40A3-93D4-C6D8A4DFB5A3}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4173,73 +4173,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos Dominio'!A3</f>
         <v>ConjuntoResidencial</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="94" t="str">
+      <c r="B3" s="80" t="str">
         <f>'Listado Objetos Dominio'!B3</f>
         <v>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
@@ -4363,7 +4363,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="29">
         <v>50</v>
@@ -4675,16 +4675,16 @@
       <c r="U12" s="36"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="E14" s="110" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="E14" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
@@ -4707,75 +4707,75 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="84" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="109"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="113"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="85"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88" t="s">
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88" t="s">
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88" t="s">
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="S19" s="91"/>
+      <c r="S19" s="76"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="43" t="s">
         <v>71</v>
       </c>
@@ -4788,12 +4788,12 @@
       <c r="K20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="90" t="s">
+      <c r="L20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
       <c r="P20" s="43" t="s">
         <v>73</v>
       </c>
@@ -4808,92 +4808,92 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="14"/>
       <c r="I21" s="12"/>
       <c r="J21" s="13"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="45"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="48"/>
       <c r="I22" s="46"/>
       <c r="J22" s="47"/>
       <c r="K22" s="49"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
       <c r="S22" s="51"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="53"/>
       <c r="I23" s="54"/>
       <c r="J23" s="52"/>
       <c r="K23" s="55"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="56"/>
       <c r="R23" s="56"/>
       <c r="S23" s="57"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
       <c r="H24" s="59"/>
       <c r="I24" s="60"/>
       <c r="J24" s="58"/>
       <c r="K24" s="59"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
       <c r="P24" s="36"/>
       <c r="Q24" s="61"/>
       <c r="R24" s="61"/>
@@ -4901,6 +4901,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="L20:O20"/>
     <mergeCell ref="A1:Q1"/>
@@ -4917,20 +4931,6 @@
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="C19:G20"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="L24:O24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{193F65CD-468D-4EE9-B635-8067A5B8EAA9}"/>
@@ -4989,73 +4989,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos Dominio'!A4</f>
         <v>ZonaComun</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="94" t="str">
+      <c r="B3" s="80" t="str">
         <f>'Listado Objetos Dominio'!B4</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y poder usarlos.</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
@@ -5478,11 +5478,11 @@
     </row>
     <row r="13" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
@@ -5496,10 +5496,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="108" t="s">
         <v>160</v>
       </c>
       <c r="C16" s="41" t="s">
@@ -5507,54 +5507,54 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="99"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="42" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88" t="s">
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88" t="s">
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88" t="s">
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="S19" s="91"/>
+      <c r="S19" s="76"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="43" t="s">
         <v>71</v>
       </c>
@@ -5567,12 +5567,12 @@
       <c r="K20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="90" t="s">
+      <c r="L20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
       <c r="P20" s="43" t="s">
         <v>73</v>
       </c>
@@ -5587,92 +5587,92 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="14"/>
       <c r="I21" s="12"/>
       <c r="J21" s="13"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="45"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="48"/>
       <c r="I22" s="46"/>
       <c r="J22" s="47"/>
       <c r="K22" s="49"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
       <c r="S22" s="51"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="53"/>
       <c r="I23" s="54"/>
       <c r="J23" s="52"/>
       <c r="K23" s="55"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="56"/>
       <c r="R23" s="56"/>
       <c r="S23" s="57"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
       <c r="H24" s="59"/>
       <c r="I24" s="60"/>
       <c r="J24" s="58"/>
       <c r="K24" s="59"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
       <c r="P24" s="36"/>
       <c r="Q24" s="61"/>
       <c r="R24" s="61"/>
@@ -5680,6 +5680,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="L20:O20"/>
     <mergeCell ref="A1:Q1"/>
@@ -5693,18 +5705,6 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="L24:O24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{B8AB2723-0DBB-4F87-B341-FF92A393E7BB}"/>
@@ -5763,124 +5763,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos Dominio'!A5</f>
         <v>Administrador</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="94" t="str">
+      <c r="B3" s="80" t="str">
         <f>'Listado Objetos Dominio'!B5</f>
         <v>Objeto de dominio que representa el Administrador encargado de hacer la creación o gestión de las zonas comunes y la gestión de residentes y sus respectivas reservas en caso de ser necesario.</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="106" t="s">
+      <c r="J4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="107" t="s">
+      <c r="Q4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="R4" s="24" t="str">
@@ -6271,21 +6271,21 @@
       <c r="U12" s="36"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="E15" s="110" t="s">
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="E15" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="I15" s="110" t="s">
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="I15" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
@@ -6317,100 +6317,100 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="109" t="s">
+      <c r="G17" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="111" t="s">
+      <c r="I17" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="111" t="s">
+      <c r="J17" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="109" t="s">
+      <c r="K17" s="83" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="109"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="109"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="109"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="83"/>
     </row>
     <row r="19" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="111"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="109"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="109"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88" t="s">
+      <c r="B21" s="75"/>
+      <c r="C21" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88" t="s">
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88" t="s">
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88" t="s">
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="S21" s="91"/>
+      <c r="S21" s="76"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="43" t="s">
         <v>71</v>
       </c>
@@ -6423,12 +6423,12 @@
       <c r="K22" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="90" t="s">
+      <c r="L22" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
       <c r="P22" s="43" t="s">
         <v>73</v>
       </c>
@@ -6443,92 +6443,92 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="14"/>
       <c r="I23" s="12"/>
       <c r="J23" s="13"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="45"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="48"/>
       <c r="I24" s="46"/>
       <c r="J24" s="47"/>
       <c r="K24" s="49"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
       <c r="S24" s="51"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
       <c r="H25" s="53"/>
       <c r="I25" s="54"/>
       <c r="J25" s="52"/>
       <c r="K25" s="55"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="56"/>
       <c r="R25" s="56"/>
       <c r="S25" s="57"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
       <c r="H26" s="59"/>
       <c r="I26" s="60"/>
       <c r="J26" s="58"/>
       <c r="K26" s="59"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
       <c r="P26" s="36"/>
       <c r="Q26" s="61"/>
       <c r="R26" s="61"/>
@@ -6536,6 +6536,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:O21"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="L22:O22"/>
@@ -6552,24 +6570,6 @@
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="J17:J19"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:G22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="L26:O26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{B1A972F6-B36A-42D4-994E-AD97A6BC793F}"/>
@@ -6600,8 +6600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CF9007-2408-46A6-B9E2-87DBBD723E5F}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A14"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6632,73 +6632,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos Dominio'!A6</f>
         <v>ZonaInmueble</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="94" t="str">
+      <c r="B3" s="80" t="str">
         <f>'Listado Objetos Dominio'!B6</f>
         <v>Objeto de dominio que representa una zona de inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (torre, bloque, lote) que comparten una ubicación fisica y caracteristicas comunes dentro del conjunto.</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
@@ -6872,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="29">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -6949,11 +6949,11 @@
     </row>
     <row r="9" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
@@ -6967,10 +6967,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="108" t="s">
         <v>143</v>
       </c>
       <c r="C12" s="41" t="s">
@@ -6978,61 +6978,61 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
-      <c r="B13" s="105"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="64" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="104"/>
-      <c r="B14" s="101"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="42" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88" t="s">
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88" t="s">
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88" t="s">
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88" t="s">
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="S16" s="91"/>
+      <c r="S16" s="76"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="89"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="43" t="s">
         <v>71</v>
       </c>
@@ -7045,12 +7045,12 @@
       <c r="K17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="90" t="s">
+      <c r="L17" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
       <c r="P17" s="43" t="s">
         <v>73</v>
       </c>
@@ -7065,92 +7065,92 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="14"/>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="45"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="48"/>
       <c r="I19" s="46"/>
       <c r="J19" s="47"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="51"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="53"/>
       <c r="I20" s="54"/>
       <c r="J20" s="52"/>
       <c r="K20" s="55"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
       <c r="P20" s="35"/>
       <c r="Q20" s="56"/>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="59"/>
       <c r="I21" s="60"/>
       <c r="J21" s="58"/>
       <c r="K21" s="59"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="61"/>
       <c r="R21" s="61"/>
@@ -7158,6 +7158,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:O19"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="A1:Q1"/>
@@ -7171,18 +7183,6 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{00F0F8F7-DC0F-4454-B174-288E79B7BE78}"/>
@@ -7242,73 +7242,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos Dominio'!A7</f>
         <v>Inmueble</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="94" t="str">
+      <c r="B3" s="80" t="str">
         <f>'Listado Objetos Dominio'!B7</f>
         <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
@@ -7542,11 +7542,11 @@
       <c r="U8" s="36"/>
     </row>
     <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
@@ -7560,77 +7560,77 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="83" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
     </row>
     <row r="14" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="108" t="s">
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="67" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="108" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="67" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88" t="s">
+      <c r="B17" s="75"/>
+      <c r="C17" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88" t="s">
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88" t="s">
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88" t="s">
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="S17" s="91"/>
+      <c r="S17" s="76"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="43" t="s">
         <v>71</v>
       </c>
@@ -7643,12 +7643,12 @@
       <c r="K18" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="90" t="s">
+      <c r="L18" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
       <c r="P18" s="43" t="s">
         <v>73</v>
       </c>
@@ -7663,92 +7663,92 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="14"/>
       <c r="I19" s="12"/>
       <c r="J19" s="13"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="45"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="48"/>
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
       <c r="K20" s="49"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="51"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
       <c r="H21" s="53"/>
       <c r="I21" s="54"/>
       <c r="J21" s="52"/>
       <c r="K21" s="55"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="56"/>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
       <c r="H22" s="59"/>
       <c r="I22" s="60"/>
       <c r="J22" s="58"/>
       <c r="K22" s="59"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="61"/>
       <c r="R22" s="61"/>
@@ -7756,6 +7756,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="L20:O20"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="A1:Q1"/>
@@ -7770,18 +7782,6 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E9339FF0-C25B-4ACF-BE04-E905DF5A13F0}"/>

--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo Dominio Enriquecido ConjuntosResidenciales.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo Dominio Enriquecido ConjuntosResidenciales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E33FC-A16D-4425-81BB-3A079F78669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA6D40-EB43-41DD-8681-FC8A7F614AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8844" yWindow="0" windowWidth="14292" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{68A10BBB-2615-4E9A-8951-B88AC10A8A21}"/>
+    <workbookView xWindow="18615" yWindow="3795" windowWidth="16695" windowHeight="14190" firstSheet="2" activeTab="3" xr2:uid="{68A10BBB-2615-4E9A-8951-B88AC10A8A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2188,7 +2188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="181">
   <si>
     <t>Referenciado</t>
   </si>
@@ -2671,6 +2671,66 @@
   </si>
   <si>
     <t>No es posible tener más de una zona común con el mismo nombre para un mismo conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Registrar</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>Modificar</t>
+  </si>
+  <si>
+    <t>Acción de registrar un conjunto residencial en el sistema</t>
+  </si>
+  <si>
+    <t>Acción de buscar un conjunto residencial en el sistema</t>
+  </si>
+  <si>
+    <t>Acción de modificar un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Eliminar residente</t>
+  </si>
+  <si>
+    <t>Asociar residente</t>
+  </si>
+  <si>
+    <t>Asociar administrador</t>
+  </si>
+  <si>
+    <t>Eliminar administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dar de baja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción de asociar un residente a un conjunto residencial. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción de asociar un administrador a un conjunto residencial. </t>
+  </si>
+  <si>
+    <t>Acción de eliminar a un residente del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Acción de eliminar a un administrador del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Acción de eliminar un conjunto residencial del sistema</t>
+  </si>
+  <si>
+    <t>datosConjuntoResidencial</t>
+  </si>
+  <si>
+    <t>Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo conjunto residencial.</t>
+  </si>
+  <si>
+    <t>ncdff # 1</t>
+  </si>
+  <si>
+    <t>Corresponde internamente a los datos de la consulta de un conjunto residencial.</t>
   </si>
 </sst>
 </file>
@@ -3162,7 +3222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3348,6 +3408,15 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3369,6 +3438,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3381,17 +3474,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3402,42 +3486,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3471,29 +3555,11 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3902,19 +3968,19 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="66"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="69"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3922,7 +3988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3930,7 +3996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3938,52 +4004,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -4004,7 +4070,7 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4019,26 +4085,26 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="8"/>
+    <col min="1" max="1" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="70"/>
+      <c r="D1" s="71"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -4052,7 +4118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
@@ -4062,12 +4128,12 @@
       <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="69" t="str">
+      <c r="D3" s="72" t="str">
         <f>$B$1</f>
         <v>Residentes</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -4077,9 +4143,9 @@
       <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="70"/>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D4" s="73"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
@@ -4089,9 +4155,9 @@
       <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="70"/>
-    </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="73"/>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
@@ -4101,9 +4167,9 @@
       <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="70"/>
-    </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="D6" s="73"/>
+    </row>
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -4113,9 +4179,9 @@
       <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="71"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="74"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4139,109 +4205,109 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52572D8B-2E5B-40A3-93D4-C6D8A4DFB5A3}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="8"/>
+    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="94" t="str">
         <f>'Listado Objetos Dominio'!A3</f>
         <v>ConjuntoResidencial</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="94" t="str">
+      <c r="B3" s="95" t="str">
         <f>'Listado Objetos Dominio'!B3</f>
         <v>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
@@ -4295,22 +4361,22 @@
       </c>
       <c r="R4" s="24" t="str">
         <f>A21</f>
-        <v>Reponsabilidad 1</v>
+        <v>Registrar</v>
       </c>
       <c r="S4" s="25" t="str">
         <f>A22</f>
-        <v>Reponsabilidad 2</v>
+        <v>Buscar</v>
       </c>
       <c r="T4" s="26" t="str">
         <f>A23</f>
-        <v>Reponsabilidad 3</v>
+        <v>Modificar</v>
       </c>
       <c r="U4" s="27" t="str">
         <f>A24</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+        <v>Asociar residente</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>49</v>
       </c>
@@ -4355,7 +4421,7 @@
       <c r="T5" s="35"/>
       <c r="U5" s="36"/>
     </row>
-    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>53</v>
       </c>
@@ -4402,7 +4468,7 @@
       <c r="T6" s="35"/>
       <c r="U6" s="36"/>
     </row>
-    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>126</v>
       </c>
@@ -4449,7 +4515,7 @@
       <c r="T7" s="35"/>
       <c r="U7" s="36"/>
     </row>
-    <row r="8" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>82</v>
       </c>
@@ -4496,7 +4562,7 @@
       <c r="T8" s="35"/>
       <c r="U8" s="36"/>
     </row>
-    <row r="9" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>84</v>
       </c>
@@ -4543,7 +4609,7 @@
       <c r="T9" s="35"/>
       <c r="U9" s="36"/>
     </row>
-    <row r="10" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>125</v>
       </c>
@@ -4590,7 +4656,7 @@
       <c r="T10" s="35"/>
       <c r="U10" s="36"/>
     </row>
-    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>56</v>
       </c>
@@ -4637,7 +4703,7 @@
       <c r="T11" s="35"/>
       <c r="U11" s="36"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>86</v>
       </c>
@@ -4674,19 +4740,19 @@
       <c r="T12" s="35"/>
       <c r="U12" s="36"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="110" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="E14" s="110" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="E14" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>64</v>
       </c>
@@ -4706,76 +4772,79 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111" t="s">
+    <row r="16" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="99" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="109"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="113"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="87" t="s">
+      <c r="J16" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="100"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88" t="s">
+      <c r="B19" s="87"/>
+      <c r="C19" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88" t="s">
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88" t="s">
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88" t="s">
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88" t="s">
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87" t="s">
         <v>70</v>
       </c>
       <c r="S19" s="91"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="102"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="43" t="s">
         <v>71</v>
       </c>
@@ -4788,12 +4857,12 @@
       <c r="K20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="90" t="s">
+      <c r="L20" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
       <c r="P20" s="43" t="s">
         <v>73</v>
       </c>
@@ -4807,100 +4876,272 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="K21" s="12"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="45"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
       <c r="S22" s="51"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="52"/>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>178</v>
+      </c>
       <c r="K23" s="55"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="56"/>
       <c r="R23" s="56"/>
       <c r="S23" s="57"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="58"/>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>178</v>
+      </c>
       <c r="K24" s="59"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
       <c r="P24" s="36"/>
       <c r="Q24" s="61"/>
       <c r="R24" s="61"/>
       <c r="S24" s="62"/>
     </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="45"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="49"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="51"/>
+    </row>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" s="55"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="57"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="76"/>
+      <c r="C28" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="I28" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="59"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="42">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="L26:O26"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="L20:O20"/>
     <mergeCell ref="A1:Q1"/>
@@ -4922,15 +5163,15 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="L22:O22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="L24:O24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{193F65CD-468D-4EE9-B635-8067A5B8EAA9}"/>
@@ -4947,6 +5188,12 @@
     <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{5CD680C6-1665-4648-84F6-72D901F7A828}"/>
     <hyperlink ref="C16" location="ConjuntoResidencial!A6" display="nombre" xr:uid="{E3CE49C9-93B6-443B-B14A-591822BFE047}"/>
     <hyperlink ref="G16:G17" location="ConjuntoResidencial!A10" display="contactoRecepcion" xr:uid="{69FF8ABB-0601-480F-98C0-E49036427897}"/>
+    <hyperlink ref="I28" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{38031C43-F51F-4E48-BE01-F39C11731083}"/>
+    <hyperlink ref="A26:B26" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{2A38A3AE-2BCB-4335-93AC-549F467933F1}"/>
+    <hyperlink ref="A25:B25" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{71654449-08F5-4DC2-B59F-01DED4B8B384}"/>
+    <hyperlink ref="A28:B28" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{3D832ED5-7D20-45B3-B9F7-78E1FFFFA42C}"/>
+    <hyperlink ref="A27:B27" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{18D23A84-E345-45C4-B44A-03BC44E5CA10}"/>
+    <hyperlink ref="I21" location="ConjuntoResidencial!A1" display="ConjuntoResidencial" xr:uid="{428286C6-5B25-4E17-BDF9-651E2FD0767E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4957,107 +5204,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC27993B-5D8F-4859-AF5A-93E173C14E9E}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="8"/>
+    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="94" t="str">
         <f>'Listado Objetos Dominio'!A4</f>
         <v>ZonaComun</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="94" t="str">
+      <c r="B3" s="95" t="str">
         <f>'Listado Objetos Dominio'!B4</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y poder usarlos.</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
@@ -5126,7 +5373,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>49</v>
       </c>
@@ -5171,7 +5418,7 @@
       <c r="T5" s="35"/>
       <c r="U5" s="36"/>
     </row>
-    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>53</v>
       </c>
@@ -5218,7 +5465,7 @@
       <c r="T6" s="35"/>
       <c r="U6" s="36"/>
     </row>
-    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>56</v>
       </c>
@@ -5265,7 +5512,7 @@
       <c r="T7" s="35"/>
       <c r="U7" s="36"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>149</v>
       </c>
@@ -5306,7 +5553,7 @@
       <c r="T8" s="35"/>
       <c r="U8" s="36"/>
     </row>
-    <row r="9" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>150</v>
       </c>
@@ -5349,7 +5596,7 @@
       <c r="T9" s="35"/>
       <c r="U9" s="36"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>151</v>
       </c>
@@ -5390,7 +5637,7 @@
       <c r="T10" s="35"/>
       <c r="U10" s="36"/>
     </row>
-    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>59</v>
       </c>
@@ -5437,7 +5684,7 @@
       <c r="T11" s="35"/>
       <c r="U11" s="36"/>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>61</v>
       </c>
@@ -5476,15 +5723,15 @@
       <c r="T12" s="35"/>
       <c r="U12" s="36"/>
     </row>
-    <row r="13" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95" t="s">
+    <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>64</v>
       </c>
@@ -5495,66 +5742,66 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98" t="s">
+    <row r="16" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="108" t="s">
         <v>160</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="99"/>
-      <c r="B17" s="101"/>
+    <row r="17" spans="1:19" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="107"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="87" t="s">
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88" t="s">
+      <c r="B19" s="87"/>
+      <c r="C19" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88" t="s">
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88" t="s">
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88" t="s">
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88" t="s">
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87" t="s">
         <v>70</v>
       </c>
       <c r="S19" s="91"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="102"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="43" t="s">
         <v>71</v>
       </c>
@@ -5567,12 +5814,12 @@
       <c r="K20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="90" t="s">
+      <c r="L20" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
       <c r="P20" s="43" t="s">
         <v>73</v>
       </c>
@@ -5586,93 +5833,93 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="14"/>
       <c r="I21" s="12"/>
       <c r="J21" s="13"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="45"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="83" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="48"/>
       <c r="I22" s="46"/>
       <c r="J22" s="47"/>
       <c r="K22" s="49"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
       <c r="S22" s="51"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="72" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="53"/>
       <c r="I23" s="54"/>
       <c r="J23" s="52"/>
       <c r="K23" s="55"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="56"/>
       <c r="R23" s="56"/>
       <c r="S23" s="57"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="59"/>
       <c r="I24" s="60"/>
       <c r="J24" s="58"/>
       <c r="K24" s="59"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
       <c r="P24" s="36"/>
       <c r="Q24" s="61"/>
       <c r="R24" s="61"/>
@@ -5735,152 +5982,152 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="8"/>
+    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="94" t="str">
         <f>'Listado Objetos Dominio'!A5</f>
         <v>Administrador</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="94" t="str">
+      <c r="B3" s="95" t="str">
         <f>'Listado Objetos Dominio'!B5</f>
         <v>Objeto de dominio que representa el Administrador encargado de hacer la creación o gestión de las zonas comunes y la gestión de residentes y sus respectivas reservas en caso de ser necesario.</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="106" t="s">
+      <c r="J4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="107" t="s">
+      <c r="Q4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="R4" s="24" t="str">
@@ -5900,7 +6147,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>49</v>
       </c>
@@ -5945,7 +6192,7 @@
       <c r="T5" s="35"/>
       <c r="U5" s="36"/>
     </row>
-    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>53</v>
       </c>
@@ -5992,7 +6239,7 @@
       <c r="T6" s="35"/>
       <c r="U6" s="36"/>
     </row>
-    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>87</v>
       </c>
@@ -6039,7 +6286,7 @@
       <c r="T7" s="35"/>
       <c r="U7" s="36"/>
     </row>
-    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>102</v>
       </c>
@@ -6086,7 +6333,7 @@
       <c r="T8" s="35"/>
       <c r="U8" s="36"/>
     </row>
-    <row r="9" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>103</v>
       </c>
@@ -6133,7 +6380,7 @@
       <c r="T9" s="35"/>
       <c r="U9" s="36"/>
     </row>
-    <row r="10" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>117</v>
       </c>
@@ -6180,7 +6427,7 @@
       <c r="T10" s="35"/>
       <c r="U10" s="36"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>121</v>
       </c>
@@ -6225,7 +6472,7 @@
       <c r="T11" s="35"/>
       <c r="U11" s="36"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>90</v>
       </c>
@@ -6270,24 +6517,24 @@
       <c r="T12" s="35"/>
       <c r="U12" s="36"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="110" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="E15" s="110" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="E15" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="I15" s="110" t="s">
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="I15" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>64</v>
       </c>
@@ -6316,101 +6563,101 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111" t="s">
+    <row r="17" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="109" t="s">
+      <c r="G17" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="111" t="s">
+      <c r="I17" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="111" t="s">
+      <c r="J17" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="109" t="s">
+      <c r="K17" s="98" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="109"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="109"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="109"/>
-    </row>
-    <row r="19" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="111"/>
+    <row r="18" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="98"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98"/>
+    </row>
+    <row r="19" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="97"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="109"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="109"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="87" t="s">
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="98"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="98"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88" t="s">
+      <c r="B21" s="87"/>
+      <c r="C21" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88" t="s">
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88" t="s">
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88" t="s">
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88" t="s">
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87" t="s">
         <v>70</v>
       </c>
       <c r="S21" s="91"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="102"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="43" t="s">
         <v>71</v>
       </c>
@@ -6423,12 +6670,12 @@
       <c r="K22" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="90" t="s">
+      <c r="L22" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
       <c r="P22" s="43" t="s">
         <v>73</v>
       </c>
@@ -6442,93 +6689,93 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="14"/>
       <c r="I23" s="12"/>
       <c r="J23" s="13"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="45"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="48"/>
       <c r="I24" s="46"/>
       <c r="J24" s="47"/>
       <c r="K24" s="49"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
       <c r="S24" s="51"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="72" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="53"/>
       <c r="I25" s="54"/>
       <c r="J25" s="52"/>
       <c r="K25" s="55"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="56"/>
       <c r="R25" s="56"/>
       <c r="S25" s="57"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="76" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="59"/>
       <c r="I26" s="60"/>
       <c r="J26" s="58"/>
       <c r="K26" s="59"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
       <c r="P26" s="36"/>
       <c r="Q26" s="61"/>
       <c r="R26" s="61"/>
@@ -6536,7 +6783,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="K17:K19"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="L22:O22"/>
     <mergeCell ref="A1:Q1"/>
@@ -6557,6 +6803,7 @@
     <mergeCell ref="C21:G22"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K17:K19"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:G23"/>
@@ -6604,103 +6851,103 @@
       <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="8"/>
+    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="94" t="str">
         <f>'Listado Objetos Dominio'!A6</f>
         <v>ZonaInmueble</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="94" t="str">
+      <c r="B3" s="95" t="str">
         <f>'Listado Objetos Dominio'!B6</f>
         <v>Objeto de dominio que representa una zona de inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (torre, bloque, lote) que comparten una ubicación fisica y caracteristicas comunes dentro del conjunto.</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
@@ -6769,7 +7016,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>49</v>
       </c>
@@ -6814,7 +7061,7 @@
       <c r="T5" s="35"/>
       <c r="U5" s="36"/>
     </row>
-    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -6861,7 +7108,7 @@
       <c r="T6" s="35"/>
       <c r="U6" s="36"/>
     </row>
-    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
         <v>94</v>
       </c>
@@ -6908,7 +7155,7 @@
       <c r="T7" s="35"/>
       <c r="U7" s="36"/>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>61</v>
       </c>
@@ -6947,15 +7194,15 @@
       <c r="T8" s="35"/>
       <c r="U8" s="36"/>
     </row>
-    <row r="9" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+    <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>64</v>
       </c>
@@ -6966,73 +7213,73 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+    <row r="12" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="108" t="s">
         <v>143</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
-      <c r="B13" s="105"/>
+    <row r="13" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="111"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="64" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="104"/>
-      <c r="B14" s="101"/>
+    <row r="14" spans="1:21" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="112"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="87" t="s">
+    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88" t="s">
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88" t="s">
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88" t="s">
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87" t="s">
         <v>70</v>
       </c>
       <c r="S16" s="91"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="89"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="102"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
       <c r="H17" s="43" t="s">
         <v>71</v>
       </c>
@@ -7045,12 +7292,12 @@
       <c r="K17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="90" t="s">
+      <c r="L17" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
       <c r="P17" s="43" t="s">
         <v>73</v>
       </c>
@@ -7064,93 +7311,93 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="80" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="14"/>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="45"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="83" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="48"/>
       <c r="I19" s="46"/>
       <c r="J19" s="47"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="51"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="53"/>
       <c r="I20" s="54"/>
       <c r="J20" s="52"/>
       <c r="K20" s="55"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
       <c r="P20" s="35"/>
       <c r="Q20" s="56"/>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="76" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="59"/>
       <c r="I21" s="60"/>
       <c r="J21" s="58"/>
       <c r="K21" s="59"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="61"/>
       <c r="R21" s="61"/>
@@ -7214,103 +7461,103 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="8"/>
+    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="94" t="str">
         <f>'Listado Objetos Dominio'!A7</f>
         <v>Inmueble</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="94" t="str">
+      <c r="B3" s="95" t="str">
         <f>'Listado Objetos Dominio'!B7</f>
         <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
@@ -7379,7 +7626,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>49</v>
       </c>
@@ -7424,7 +7671,7 @@
       <c r="T5" s="35"/>
       <c r="U5" s="36"/>
     </row>
-    <row r="6" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>97</v>
       </c>
@@ -7469,7 +7716,7 @@
       <c r="T6" s="35"/>
       <c r="U6" s="36"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>99</v>
       </c>
@@ -7512,7 +7759,7 @@
       <c r="T7" s="35"/>
       <c r="U7" s="36"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>27</v>
       </c>
@@ -7541,14 +7788,14 @@
       <c r="T8" s="35"/>
       <c r="U8" s="36"/>
     </row>
-    <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+    <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>64</v>
       </c>
@@ -7559,78 +7806,78 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111" t="s">
+    <row r="12" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="109"/>
-    </row>
-    <row r="14" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="108" t="s">
+    <row r="13" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="97"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98"/>
+    </row>
+    <row r="14" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="97"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="67" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="108" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="67" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="87" t="s">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88" t="s">
+      <c r="B17" s="87"/>
+      <c r="C17" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88" t="s">
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88" t="s">
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88" t="s">
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88" t="s">
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87" t="s">
         <v>70</v>
       </c>
       <c r="S17" s="91"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="102"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="43" t="s">
         <v>71</v>
       </c>
@@ -7643,12 +7890,12 @@
       <c r="K18" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="90" t="s">
+      <c r="L18" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
       <c r="P18" s="43" t="s">
         <v>73</v>
       </c>
@@ -7662,93 +7909,93 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="80" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="14"/>
       <c r="I19" s="12"/>
       <c r="J19" s="13"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="45"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="48"/>
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
       <c r="K20" s="49"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="51"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="72" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="53"/>
       <c r="I21" s="54"/>
       <c r="J21" s="52"/>
       <c r="K21" s="55"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="56"/>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="59"/>
       <c r="I22" s="60"/>
       <c r="J22" s="58"/>
       <c r="K22" s="59"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="61"/>
       <c r="R22" s="61"/>

--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo Dominio Enriquecido ConjuntosResidenciales.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo Dominio Enriquecido ConjuntosResidenciales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA6D40-EB43-41DD-8681-FC8A7F614AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFCD1E2-CB64-48B8-870C-3AE571A944AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18615" yWindow="3795" windowWidth="16695" windowHeight="14190" firstSheet="2" activeTab="3" xr2:uid="{68A10BBB-2615-4E9A-8951-B88AC10A8A21}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="3" activeTab="5" xr2:uid="{68A10BBB-2615-4E9A-8951-B88AC10A8A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2188,7 +2188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="255">
   <si>
     <t>Referenciado</t>
   </si>
@@ -2688,36 +2688,6 @@
     <t>Acción de buscar un conjunto residencial en el sistema</t>
   </si>
   <si>
-    <t>Acción de modificar un conjunto residencial.</t>
-  </si>
-  <si>
-    <t>Eliminar residente</t>
-  </si>
-  <si>
-    <t>Asociar residente</t>
-  </si>
-  <si>
-    <t>Asociar administrador</t>
-  </si>
-  <si>
-    <t>Eliminar administrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dar de baja </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción de asociar un residente a un conjunto residencial. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acción de asociar un administrador a un conjunto residencial. </t>
-  </si>
-  <si>
-    <t>Acción de eliminar a un residente del conjunto residencial.</t>
-  </si>
-  <si>
-    <t>Acción de eliminar a un administrador del conjunto residencial.</t>
-  </si>
-  <si>
     <t>Acción de eliminar un conjunto residencial del sistema</t>
   </si>
   <si>
@@ -2730,7 +2700,259 @@
     <t>ncdff # 1</t>
   </si>
   <si>
-    <t>Corresponde internamente a los datos de la consulta de un conjunto residencial.</t>
+    <t>ConRes-Pol0001</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0002</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0003</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0005</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información del nuevo conjunto residencial sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Asegurar que el numero de contacto  del conjunto residencial que se desea registrar  no ha haya sido asignado previamente a otro conjunto residencial.</t>
+  </si>
+  <si>
+    <t>No puede haber más de un conjunto residencial con el mismo nombre.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que los datos no fueron validos a nivel de tipo de dato, longitud, obligatoriedad, formato y rango y de ser posible, se emite una recomendación para solucionar el problema.</t>
+  </si>
+  <si>
+    <t>Detener de forma inmediata le ejecución del proceso actual.</t>
+  </si>
+  <si>
+    <t>Asegurar que el identificador del conjunto residencial que se desea registrar  no ha haya sido asignado previamente a otro conjunto residencial. obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Corresponde a un objeto que contiene los filtros de consulta de los conjuntos residenciales.</t>
+  </si>
+  <si>
+    <t>Lista&lt;ConjuntoResidencial&gt;</t>
+  </si>
+  <si>
+    <t>Listado de todos los conjuntos residenciales que cumplen con los filtros de consulta: 1. Devuelve vacio cuandono se cumplan parametros de consulta. 2.Devuelve el listado de los conjuntos residenciales que cumplan con el filtro de consulta.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar  un mensaje de error indicando que el numero de contacto ya fue asignado a otro conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Se debe Asegurar que si se envian parametros de consulta sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Alfanumérico</t>
+  </si>
+  <si>
+    <t>Corresponde al identificador del conjunto residencial que se quiere dar de baja.</t>
+  </si>
+  <si>
+    <t>Acción que permite modificar la información de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Corresponde a los datos que se van a modificar del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Requerido</t>
+  </si>
+  <si>
+    <t>Filtro/Listar</t>
+  </si>
+  <si>
+    <t>Filtro {administrador.identificador}/Listar {administrador.nombre}</t>
+  </si>
+  <si>
+    <t>Filtro/No Listar</t>
+  </si>
+  <si>
+    <t>Listar</t>
+  </si>
+  <si>
+    <t>No requerido</t>
+  </si>
+  <si>
+    <t>Requerido/No modificable</t>
+  </si>
+  <si>
+    <t>Requerido/Modificable</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0006</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0007</t>
+  </si>
+  <si>
+    <t>Se debe asegura que exista.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que los datos que se ingresaron no pertenecen a ningun conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Detengo el preceso hasta que se inserten datos validos ya exitententes.</t>
+  </si>
+  <si>
+    <t>ZonCom-Pol0001</t>
+  </si>
+  <si>
+    <t>ZonCom-Pol0002</t>
+  </si>
+  <si>
+    <t>ZonCom-Pol0003</t>
+  </si>
+  <si>
+    <t>ZonCom-Pol0004</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información de la nueva zona comun sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Asegurar que el identificador de la zona común que se desea registrar  no haya sido asignado previamente a otra zona común.</t>
+  </si>
+  <si>
+    <t>No puede existir más de una zona común con el mismo nombre para el mismo conjunto residencial.</t>
+  </si>
+  <si>
+    <t>No puede tener un tiempo de uso mayor a la diferencia de hora de cierre y hora de inicio</t>
+  </si>
+  <si>
+    <t>Acción dónde un administrador podrá crear una zona común</t>
+  </si>
+  <si>
+    <t>datosZonaComun</t>
+  </si>
+  <si>
+    <t>Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva zona común.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un nuevo  identificador para el nuevo conjunto residencial hasta que se asegure que no existe para otro conjunto residencial.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un nuevo  identificador para una zona común hasta que se asegure que no existe para otra zona comun.</t>
+  </si>
+  <si>
+    <t>Continueo el proceso, generando nuevos indentificadores hasta garantizar que no estén asignados a otra zona común.</t>
+  </si>
+  <si>
+    <t>Continueo el proceso, generando nuevos indentificadores hasta garantizar que no estén asignados a otro conjunto residencial.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar  un nuevo nombre para el nuevo conjunto residencial hasta que se asegure que no exista.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar  un nuevo nombre para la nueva zona común hasta que se asegure que no exista.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingrese un nombre de zona común que no este previamente asignado a un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar  un nuevo tiempo de uso  para la nueva zona común hasta que se asegure que sea igual o menor a la diferencia de hora de cierre y de inicio.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingrese un tiempo de uso adecuado para una zona común según su hora de inicio y cierre.</t>
+  </si>
+  <si>
+    <t>Acción de buscar una zona común especifica</t>
+  </si>
+  <si>
+    <t>Corresponde a un objeto que contiene los filtros de consulta de las zona comunes de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Lista&lt;zonaComun&gt;</t>
+  </si>
+  <si>
+    <t>Listado de todos las zonas comunes que cumplen con los filtros de consulta: 1. Devuelve vacio cuandono se cumplan parametros de consulta. 2.Devuelve el listado de las zonas comunes que cumplan con el filtro de consulta.</t>
+  </si>
+  <si>
+    <t>ZonCom-Pol0006</t>
+  </si>
+  <si>
+    <t>Acción de modificar los atributos de una zona común</t>
+  </si>
+  <si>
+    <t>Acción de eliminar una zona común de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Corresponde a los datos que se van a modificar de la zona común.</t>
+  </si>
+  <si>
+    <t>Corresponde al identificador de la zona común que se quiere dar de baja.</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Filtrar</t>
+  </si>
+  <si>
+    <t>Filtro {conjuntoResidencial.identificador}/Listar {conjuntoResidencial.nombre}</t>
+  </si>
+  <si>
+    <t>Admin-Pol0001</t>
+  </si>
+  <si>
+    <t>Admin-Pol0002</t>
+  </si>
+  <si>
+    <t>Admin-Pol0003</t>
+  </si>
+  <si>
+    <t>Admin-Pol0004</t>
+  </si>
+  <si>
+    <t>Admin-Pol0005</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información del nuevo administrador sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro administrador registrado con el mismo tipo y numero de documento de identidad.</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro administrador registrado con el mismo numero de contacto.</t>
+  </si>
+  <si>
+    <t>Asegurar que el identificador del Administrador que se desea registrar  no ha haya sido asignado previamente a otro conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro administrador registrado con el mismo correo electronico.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intente registrar un administrador que tiene el tipo de documento y el numero de documento ya existente.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingrese un tipo y numero de documento para una administrador que no este previamente asignado a un administrador.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingrese numero de contacto para una administrador que no este previamente asignado a otro administrador.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un administrador que tiene el numero de contacto ya existente.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intente registrar un administrador que esta previamente registrado en otro conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingrese  administrador que no este previamente asignado a otro conjunto residencial.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un administrador que tiene el correo electronico ya existente.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingrese correo electronico para una administrador que no este previamente asignado a otro administrador.</t>
+  </si>
+  <si>
+    <t>Acción de buscar la información asociada a un administrador del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Admin-Pol0006</t>
+  </si>
+  <si>
+    <t>No filtrar/No Listar</t>
   </si>
 </sst>
 </file>
@@ -2861,7 +3083,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -3217,12 +3439,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3417,6 +3762,12 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3438,6 +3789,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3450,6 +3813,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3462,30 +3834,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3555,11 +3906,152 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3975,10 +4467,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4098,11 +4590,11 @@
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -4128,7 +4620,7 @@
       <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="72" t="str">
+      <c r="D3" s="74" t="str">
         <f>$B$1</f>
         <v>Residentes</v>
       </c>
@@ -4143,7 +4635,7 @@
       <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
@@ -4155,7 +4647,7 @@
       <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -4167,7 +4659,7 @@
       <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -4179,7 +4671,7 @@
       <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="76"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -4205,10 +4697,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52572D8B-2E5B-40A3-93D4-C6D8A4DFB5A3}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="Q1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4223,15 +4715,15 @@
     <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
     <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5703125" style="8" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="25.140625" style="8" customWidth="1"/>
     <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
@@ -4239,73 +4731,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="96" t="str">
         <f>'Listado Objetos Dominio'!A3</f>
         <v>ConjuntoResidencial</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="97" t="str">
         <f>'Listado Objetos Dominio'!B3</f>
         <v>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -4359,21 +4851,21 @@
       <c r="Q4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="24" t="str">
+      <c r="R4" s="153" t="str">
         <f>A21</f>
         <v>Registrar</v>
       </c>
-      <c r="S4" s="25" t="str">
-        <f>A22</f>
+      <c r="S4" s="155" t="str">
+        <f>A25</f>
         <v>Buscar</v>
       </c>
-      <c r="T4" s="26" t="str">
-        <f>A23</f>
+      <c r="T4" s="157" t="str">
+        <f>A26</f>
         <v>Modificar</v>
       </c>
-      <c r="U4" s="27" t="str">
-        <f>A24</f>
-        <v>Asociar residente</v>
+      <c r="U4" s="156" t="str">
+        <f>A27</f>
+        <v>Eliminar</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
@@ -4416,12 +4908,20 @@
       <c r="Q5" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="36"/>
-    </row>
-    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="R5" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>53</v>
       </c>
@@ -4463,10 +4963,18 @@
       <c r="Q6" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36"/>
+      <c r="R6" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
@@ -4510,10 +5018,18 @@
       <c r="Q7" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
+      <c r="R7" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
@@ -4557,10 +5073,18 @@
       <c r="Q8" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
+      <c r="R8" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
@@ -4604,10 +5128,18 @@
       <c r="Q9" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="36"/>
+      <c r="R9" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U9" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -4651,12 +5183,20 @@
       <c r="Q10" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="36"/>
-    </row>
-    <row r="11" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="R10" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U10" s="36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>56</v>
       </c>
@@ -4698,12 +5238,20 @@
       <c r="Q11" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R11" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U11" s="36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>86</v>
       </c>
@@ -4735,22 +5283,30 @@
         <v>52</v>
       </c>
       <c r="Q12" s="30"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="36"/>
+      <c r="R12" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S12" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="E14" s="96" t="s">
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="E14" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
@@ -4773,78 +5329,78 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="101" t="s">
         <v>125</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="100"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="102"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87" t="s">
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87" t="s">
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87" t="s">
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87" t="s">
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="S19" s="91"/>
+      <c r="S19" s="93"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
       <c r="H20" s="43" t="s">
         <v>71</v>
       </c>
@@ -4857,12 +5413,12 @@
       <c r="K20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="92" t="s">
+      <c r="L20" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
       <c r="P20" s="43" t="s">
         <v>73</v>
       </c>
@@ -4876,272 +5432,265 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
+    <row r="21" spans="1:19" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90" t="s">
+      <c r="B21" s="141"/>
+      <c r="C21" s="125" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="114" t="s">
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="R21" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="S21" s="120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="142"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="S22" s="120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="142"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="S23" s="120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="144"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="S24" s="120" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="148"/>
+      <c r="C25" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J25" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q25" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="R25" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="S25" s="146" t="s">
         <v>178</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="45"/>
-    </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="I22" s="46" t="s">
+    </row>
+    <row r="26" spans="1:19" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="150"/>
+      <c r="C26" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="K22" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="82" t="s">
-        <v>180</v>
-      </c>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="51"/>
-    </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85" t="s">
+      <c r="J26" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q26" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="R26" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="S26" s="123" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="151" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="152"/>
+      <c r="C27" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="I23" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="K23" s="55"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
-    </row>
-    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="115" t="s">
-        <v>177</v>
-      </c>
-      <c r="I24" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="K24" s="59"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="62"/>
-    </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="114" t="s">
-        <v>177</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="45"/>
-    </row>
-    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="K26" s="49"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="51"/>
-    </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="K27" s="55"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="57"/>
-    </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="115" t="s">
-        <v>177</v>
-      </c>
-      <c r="I28" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="K28" s="59"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="62"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="59"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="L28:O28"/>
+  <mergeCells count="37">
+    <mergeCell ref="A21:B24"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="L21:O24"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="L25:O25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="L26:O26"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="C21:G24"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="L20:O20"/>
     <mergeCell ref="A1:Q1"/>
@@ -5158,42 +5707,26 @@
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="C19:G20"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{193F65CD-468D-4EE9-B635-8067A5B8EAA9}"/>
-    <hyperlink ref="I24" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{D6A3905F-5171-4BCC-A32A-449BAE48B2C5}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{E280DA08-5F52-42B4-B376-29AE827B510F}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{3344552F-CBCD-4FD8-896A-1574A8002B64}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{F8AF88B9-C3D6-4BF5-9E68-8B74B6B725B3}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{A99A036C-F886-45F7-9C4C-02F0A0C088EB}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{50178298-FF7B-4B84-8D3B-BF35EA98D0BD}"/>
-    <hyperlink ref="A24:B24" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{A7DCBFDA-2184-4521-ADEE-77F244C1F1CD}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{34D964BB-B1C3-4376-AA75-FDFA5F3E76B0}"/>
+    <hyperlink ref="S4" location="ConjuntoResidencial!A25" display="ConjuntoResidencial!A25" xr:uid="{E280DA08-5F52-42B4-B376-29AE827B510F}"/>
+    <hyperlink ref="T4" location="ConjuntoResidencial!A26" display="ConjuntoResidencial!A26" xr:uid="{3344552F-CBCD-4FD8-896A-1574A8002B64}"/>
+    <hyperlink ref="U4" location="ConjuntoResidencial!A27" display="ConjuntoResidencial!A27" xr:uid="{F8AF88B9-C3D6-4BF5-9E68-8B74B6B725B3}"/>
+    <hyperlink ref="A25:B25" location="ConjuntoResidencial!S4" display="Buscar" xr:uid="{A99A036C-F886-45F7-9C4C-02F0A0C088EB}"/>
+    <hyperlink ref="R4" location="ConjuntoResidencial!A21" display="ConjuntoResidencial!A21" xr:uid="{34D964BB-B1C3-4376-AA75-FDFA5F3E76B0}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{CE0DE937-8227-40BE-8830-138F14C9D484}"/>
-    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{549D6AF5-4603-46D1-99A2-1E38C6184BC2}"/>
+    <hyperlink ref="A26:B26" location="ConjuntoResidencial!T4" display="Modificar" xr:uid="{549D6AF5-4603-46D1-99A2-1E38C6184BC2}"/>
     <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{5CD680C6-1665-4648-84F6-72D901F7A828}"/>
     <hyperlink ref="C16" location="ConjuntoResidencial!A6" display="nombre" xr:uid="{E3CE49C9-93B6-443B-B14A-591822BFE047}"/>
     <hyperlink ref="G16:G17" location="ConjuntoResidencial!A10" display="contactoRecepcion" xr:uid="{69FF8ABB-0601-480F-98C0-E49036427897}"/>
-    <hyperlink ref="I28" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{38031C43-F51F-4E48-BE01-F39C11731083}"/>
-    <hyperlink ref="A26:B26" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{2A38A3AE-2BCB-4335-93AC-549F467933F1}"/>
-    <hyperlink ref="A25:B25" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{71654449-08F5-4DC2-B59F-01DED4B8B384}"/>
-    <hyperlink ref="A28:B28" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{3D832ED5-7D20-45B3-B9F7-78E1FFFFA42C}"/>
-    <hyperlink ref="A27:B27" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{18D23A84-E345-45C4-B44A-03BC44E5CA10}"/>
+    <hyperlink ref="I27" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{38031C43-F51F-4E48-BE01-F39C11731083}"/>
+    <hyperlink ref="A27:B27" location="ConjuntoResidencial!U4" display="Dar de baja " xr:uid="{3D832ED5-7D20-45B3-B9F7-78E1FFFFA42C}"/>
     <hyperlink ref="I21" location="ConjuntoResidencial!A1" display="ConjuntoResidencial" xr:uid="{428286C6-5B25-4E17-BDF9-651E2FD0767E}"/>
+    <hyperlink ref="A21:B24" location="ConjuntoResidencial!R4" display="Registrar" xr:uid="{91E97A11-3204-4F8B-BFE0-E6D6AB3D4649}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5202,10 +5735,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC27993B-5D8F-4859-AF5A-93E173C14E9E}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5227,82 +5760,82 @@
     <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.7109375" style="8" customWidth="1"/>
     <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.42578125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="25.42578125" style="8" customWidth="1"/>
     <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="96" t="str">
         <f>'Listado Objetos Dominio'!A4</f>
         <v>ZonaComun</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="97" t="str">
         <f>'Listado Objetos Dominio'!B4</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y poder usarlos.</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -5356,21 +5889,21 @@
       <c r="Q4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="24" t="str">
+      <c r="R4" s="153" t="str">
         <f>A21</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="S4" s="25" t="str">
-        <f>A22</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="T4" s="26" t="str">
-        <f>A23</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="U4" s="27" t="str">
-        <f>A24</f>
-        <v>Reponsabilidad 4</v>
+        <v>Registrar</v>
+      </c>
+      <c r="S4" s="155" t="str">
+        <f>A25</f>
+        <v>Buscar</v>
+      </c>
+      <c r="T4" s="157" t="str">
+        <f>A26</f>
+        <v>Modificar</v>
+      </c>
+      <c r="U4" s="156" t="str">
+        <f>A27</f>
+        <v>Eliminar</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
@@ -5413,10 +5946,18 @@
       <c r="Q5" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="36"/>
+      <c r="R5" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
@@ -5460,10 +6001,18 @@
       <c r="Q6" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36"/>
+      <c r="R6" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
@@ -5507,10 +6056,18 @@
       <c r="Q7" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
+      <c r="R7" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
@@ -5548,10 +6105,18 @@
       <c r="Q8" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
+      <c r="R8" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
@@ -5591,10 +6156,18 @@
       <c r="Q9" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="36"/>
+      <c r="R9" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U9" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -5632,10 +6205,18 @@
       <c r="Q10" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="36"/>
+      <c r="R10" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U10" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
@@ -5679,12 +6260,20 @@
       <c r="Q11" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R11" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U11" s="36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>61</v>
       </c>
@@ -5718,18 +6307,26 @@
       <c r="Q12" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="R12" s="33"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="36"/>
+      <c r="R12" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S12" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
@@ -5743,10 +6340,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="108" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="110" t="s">
         <v>160</v>
       </c>
       <c r="C16" s="41" t="s">
@@ -5754,54 +6351,54 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="107"/>
-      <c r="B17" s="109"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="42" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87" t="s">
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87" t="s">
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87" t="s">
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87" t="s">
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="S19" s="91"/>
+      <c r="S19" s="93"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
       <c r="H20" s="43" t="s">
         <v>71</v>
       </c>
@@ -5814,12 +6411,12 @@
       <c r="K20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="92" t="s">
+      <c r="L20" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
       <c r="P20" s="43" t="s">
         <v>73</v>
       </c>
@@ -5833,100 +6430,266 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="45"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="51"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="62"/>
+    <row r="21" spans="1:19" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="141"/>
+      <c r="C21" s="125" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="I21" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="121" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="S21" s="120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="142"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="S22" s="120" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="142"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="S23" s="120" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="144"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="S24" s="120" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q25" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="R25" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="S25" s="146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="78"/>
+      <c r="C26" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q26" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="R26" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="S26" s="123" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="K27" s="59"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="32">
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L21:O24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="C21:G24"/>
+    <mergeCell ref="A21:B24"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="L20:O20"/>
     <mergeCell ref="A1:Q1"/>
@@ -5940,34 +6703,25 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="L24:O24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{B8AB2723-0DBB-4F87-B341-FF92A393E7BB}"/>
-    <hyperlink ref="I24" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{7B287CD9-7461-407E-8430-DC4157DE9162}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C53D74EF-792C-47CF-B457-9922AC04B815}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{A47A54B4-72BE-487E-9F79-315829853B30}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{5A09005C-1BAB-4872-9EB4-A1109E95BA3E}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{1333C857-9060-49DA-99D0-4C374B03287A}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{AFDE84C3-0A38-4CAC-8D0E-DAEE4574BB22}"/>
-    <hyperlink ref="A24:B24" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{0EC787C4-E5F0-4766-9684-49574A180693}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{4C33DCA4-E2E2-41EA-8C75-4F0463BB787D}"/>
+    <hyperlink ref="I27" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{7B287CD9-7461-407E-8430-DC4157DE9162}"/>
+    <hyperlink ref="S4" location="ZonaComun!A25" display="ZonaComun!A25" xr:uid="{C53D74EF-792C-47CF-B457-9922AC04B815}"/>
+    <hyperlink ref="T4" location="ZonaComun!A26" display="ZonaComun!A26" xr:uid="{A47A54B4-72BE-487E-9F79-315829853B30}"/>
+    <hyperlink ref="U4" location="ZonaComun!A27" display="ZonaComun!A27" xr:uid="{5A09005C-1BAB-4872-9EB4-A1109E95BA3E}"/>
+    <hyperlink ref="A25:B25" location="ZonaComun!S4" display="Buscar" xr:uid="{1333C857-9060-49DA-99D0-4C374B03287A}"/>
+    <hyperlink ref="A27:B27" location="ZonaComun!U4" display="Eliminar" xr:uid="{0EC787C4-E5F0-4766-9684-49574A180693}"/>
+    <hyperlink ref="R4" location="ZonaComun!A21" display="ZonaComun!A21" xr:uid="{4C33DCA4-E2E2-41EA-8C75-4F0463BB787D}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos Dominio'!A4" display="&lt;-Volver al inicio" xr:uid="{AD5B3A32-FF42-4C2C-9AD5-DAE19B42C01D}"/>
-    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{72894232-10BF-4774-9E71-DBE230ADF481}"/>
+    <hyperlink ref="A26:B26" location="ZonaComun!T4" display="Modificar" xr:uid="{72894232-10BF-4774-9E71-DBE230ADF481}"/>
     <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{9ADA5DD0-4793-4FC0-BF21-326B04F1550E}"/>
     <hyperlink ref="C16" location="ZonaComun!A6" display="nombre" xr:uid="{7759D88B-68CA-4CF5-8D37-D7D8BC920400}"/>
     <hyperlink ref="C17" location="ZonaComun!A12" display="conjuntoResidencial" xr:uid="{6F635A0B-7616-426D-8D4E-F59F9749F8F0}"/>
+    <hyperlink ref="I21:I24" location="ZonaComun!A1" display="ZonaComun" xr:uid="{C217EB7D-4D8E-4880-AB06-83F960D730E2}"/>
+    <hyperlink ref="I25" location="ZonaComun!A1" display="ZonaComun" xr:uid="{F45BFE0E-87F9-45EA-8972-617FA9AC67D2}"/>
+    <hyperlink ref="I26" location="ZonaComun!A1" display="ZonaComun" xr:uid="{1D6A9680-0CED-4EAD-8821-55665C3DC308}"/>
+    <hyperlink ref="A21:B24" location="ZonaComun!R4" display="Registrar" xr:uid="{58C0241E-E232-4BD7-8F08-8F4F8F7AD62A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5976,10 +6730,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F029C1A4-1158-48DA-9920-018E5820E9AF}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6001,82 +6755,82 @@
     <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="42.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="40.85546875" style="8" customWidth="1"/>
     <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="96" t="str">
         <f>'Listado Objetos Dominio'!A5</f>
         <v>Administrador</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="97" t="str">
         <f>'Listado Objetos Dominio'!B5</f>
         <v>Objeto de dominio que representa el Administrador encargado de hacer la creación o gestión de las zonas comunes y la gestión de residentes y sus respectivas reservas en caso de ser necesario.</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
@@ -6130,21 +6884,21 @@
       <c r="Q4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="24" t="str">
+      <c r="R4" s="153" t="str">
         <f>A23</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="S4" s="25" t="str">
-        <f>A24</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="T4" s="26" t="str">
-        <f>A25</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="U4" s="27" t="str">
-        <f>A26</f>
-        <v>Reponsabilidad 4</v>
+        <v>Registrar</v>
+      </c>
+      <c r="S4" s="155" t="str">
+        <f>A28</f>
+        <v>Buscar</v>
+      </c>
+      <c r="T4" s="157" t="str">
+        <f>A29</f>
+        <v>Modificar</v>
+      </c>
+      <c r="U4" s="156" t="str">
+        <f>A30</f>
+        <v>Eliminar</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
@@ -6187,10 +6941,18 @@
       <c r="Q5" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="36"/>
+      <c r="R5" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
@@ -6234,10 +6996,18 @@
       <c r="Q6" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36"/>
+      <c r="R6" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
@@ -6281,10 +7051,18 @@
       <c r="Q7" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
+      <c r="R7" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -6328,10 +7106,18 @@
       <c r="Q8" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
+      <c r="R8" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
@@ -6375,10 +7161,18 @@
       <c r="Q9" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="36"/>
+      <c r="R9" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U9" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
@@ -6422,10 +7216,18 @@
       <c r="Q10" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="36"/>
+      <c r="R10" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U10" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
@@ -6467,10 +7269,18 @@
       <c r="Q11" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36"/>
+      <c r="R11" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U11" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
@@ -6512,27 +7322,35 @@
       <c r="Q12" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="R12" s="33"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="36"/>
+      <c r="R12" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="S12" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="E15" s="96" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="E15" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="I15" s="96" t="s">
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="I15" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
@@ -6564,100 +7382,100 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="97" t="s">
+      <c r="E17" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="97" t="s">
+      <c r="F17" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="98" t="s">
+      <c r="G17" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="97" t="s">
+      <c r="I17" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="97" t="s">
+      <c r="J17" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="98" t="s">
+      <c r="K17" s="100" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="98"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="98"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100"/>
     </row>
     <row r="19" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="97"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="98"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="100"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87" t="s">
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87" t="s">
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87" t="s">
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87" t="s">
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="S21" s="91"/>
+      <c r="S21" s="93"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
       <c r="H22" s="43" t="s">
         <v>71</v>
       </c>
@@ -6670,12 +7488,12 @@
       <c r="K22" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="92" t="s">
+      <c r="L22" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
       <c r="P22" s="43" t="s">
         <v>73</v>
       </c>
@@ -6689,100 +7507,311 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="45"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="51"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="57"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="62"/>
+    <row r="23" spans="1:19" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="141"/>
+      <c r="C23" s="125" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="74" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosAdministrador</v>
+      </c>
+      <c r="I23" s="134" t="str">
+        <f>B2</f>
+        <v>Administrador</v>
+      </c>
+      <c r="J23" s="121" t="str">
+        <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva ",B2,)</f>
+        <v>Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva Administrador</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="S23" s="120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="142"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="S24" s="120" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="142"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="S25" s="120" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="142"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="S26" s="120" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="144"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="S27" s="120" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="48" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosAdministrador</v>
+      </c>
+      <c r="I28" s="46" t="str">
+        <f>B2</f>
+        <v>Administrador</v>
+      </c>
+      <c r="J28" s="47" t="str">
+        <f>_xlfn.CONCAT("Corresponde a un objeto que contiene los filtros de consulta de ",B2," de un conjunto residencial.")</f>
+        <v>Corresponde a un objeto que contiene los filtros de consulta de Administrador de un conjunto residencial.</v>
+      </c>
+      <c r="K28" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q28" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="R28" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="S28" s="146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="53" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosAdministrador</v>
+      </c>
+      <c r="I29" s="54" t="str">
+        <f>B2</f>
+        <v>Administrador</v>
+      </c>
+      <c r="J29" s="52" t="str">
+        <f>_xlfn.CONCAT("Corresponde a los datos que se van a modificar de la ",B2)</f>
+        <v>Corresponde a los datos que se van a modificar de la Administrador</v>
+      </c>
+      <c r="K29" s="55"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="163"/>
+      <c r="P29" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q29" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="R29" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="S29" s="123" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="58" t="str">
+        <f>_xlfn.CONCAT("Corresponde al identificador de la ",B2,"  que se quiere dar de baja.")</f>
+        <v>Corresponde al identificador de la Administrador  que se quiere dar de baja.</v>
+      </c>
+      <c r="K30" s="59"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="160"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="41">
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="A23:B27"/>
+    <mergeCell ref="C23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="L23:O27"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K17:K19"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="L22:O22"/>
     <mergeCell ref="A1:Q1"/>
@@ -6799,37 +7828,10 @@
     <mergeCell ref="J17:J19"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="G17:G19"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:G22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="L26:O26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{B1A972F6-B36A-42D4-994E-AD97A6BC793F}"/>
-    <hyperlink ref="I26" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{B2833232-3087-4CC5-9F65-5F91295FD041}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{2602E3AA-488D-496D-B84A-58176DAA45FC}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{23273231-720A-495B-950C-490FE40A20BD}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{ECF4DB54-1574-413B-B4EC-30E1616EA122}"/>
-    <hyperlink ref="A24:B24" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{374EA084-0C1C-4635-9F79-062A62FDB800}"/>
-    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{7733FCBC-EC24-4B03-AC2D-BD3B83C7FD21}"/>
-    <hyperlink ref="A26:B26" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{D2ABFF14-D073-43F0-B29F-174543FE771B}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{7A4CF14C-50FF-4188-A9E5-F22C58614639}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{F7D16D79-2428-4319-9004-F316641697EF}"/>
-    <hyperlink ref="A25:B25" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{9636F8D8-52CB-489F-80BB-96295766719C}"/>
     <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{6DFA98AB-2CF3-402E-A15F-F08442F8328C}"/>
     <hyperlink ref="C19" location="Administrador!A9" display="correo electronico" xr:uid="{E22E437A-3654-45BF-BF03-EF869FE4A48A}"/>
     <hyperlink ref="C17" location="Administrador!A8" display="número de contacto" xr:uid="{D65643F3-37D4-4CFD-A057-0B0D1C2C4FFC}"/>
@@ -6837,6 +7839,18 @@
     <hyperlink ref="K17" location="Administrador!A8" display="número de contacto" xr:uid="{898E3821-1DEF-4978-AA45-468D2B06CB4F}"/>
     <hyperlink ref="G17:G19" location="Administrador!A10" display="número de contacto" xr:uid="{648698B8-6C18-4EA4-8D4A-0EF83EB4FA0F}"/>
     <hyperlink ref="K17:K19" location="Administrador!A11" display="correoElectronico" xr:uid="{E463ABBA-82E8-4591-91D8-C7F754CC49E0}"/>
+    <hyperlink ref="I30" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{E686A4E8-589A-47C0-9824-25348E36A276}"/>
+    <hyperlink ref="A28:B28" location="Administrador!S4" display="Buscar" xr:uid="{31D84E55-60E4-4964-BD75-688E6B3AA8DE}"/>
+    <hyperlink ref="A30:B30" location="Administrador!U4" display="Eliminar" xr:uid="{2AA4DF1F-625F-4C4E-8D0C-2CA1673BB288}"/>
+    <hyperlink ref="A29:B29" location="Administrador!T4" display="Modificar" xr:uid="{CF850717-498C-464F-B867-4F9FB8EE321C}"/>
+    <hyperlink ref="I23:I27" location="ZonaComun!A1" display="ZonaComun" xr:uid="{16F47BC3-CD12-4E4E-A360-3F34AF557638}"/>
+    <hyperlink ref="I28" location="ZonaComun!A1" display="ZonaComun" xr:uid="{11F6F351-E9CE-4AFE-81AB-5676EE7E2B50}"/>
+    <hyperlink ref="I29" location="ZonaComun!A1" display="ZonaComun" xr:uid="{48580169-E73F-4731-A7FA-2B061D25D9D8}"/>
+    <hyperlink ref="A23:B27" location="Administrador!R4" display="Registrar" xr:uid="{5890391C-93D0-4DAA-BE62-8BB52A3A1FD2}"/>
+    <hyperlink ref="S4" location="Administrador!A27" display="Administrador!A27" xr:uid="{5AB73F63-7E04-4540-B1C0-05CA4488DD95}"/>
+    <hyperlink ref="T4" location="Administrador!A29" display="Administrador!A29" xr:uid="{56DCA589-D5C2-4542-9274-4B3FED101902}"/>
+    <hyperlink ref="U4" location="Administrador!A30" display="Administrador!A30" xr:uid="{C22F7481-B97F-4E6B-A79E-A97D32B1D167}"/>
+    <hyperlink ref="R4" location="Administrador!A23" display="Administrador!A23" xr:uid="{E669706D-EB1F-49B8-B0AF-0FDB79EC3688}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6879,73 +7893,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="96" t="str">
         <f>'Listado Objetos Dominio'!A6</f>
         <v>ZonaInmueble</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="97" t="str">
         <f>'Listado Objetos Dominio'!B6</f>
         <v>Objeto de dominio que representa una zona de inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (torre, bloque, lote) que comparten una ubicación fisica y caracteristicas comunes dentro del conjunto.</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -7196,11 +8210,11 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
@@ -7214,10 +8228,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="110" t="s">
         <v>143</v>
       </c>
       <c r="C12" s="41" t="s">
@@ -7225,61 +8239,61 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="113"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="64" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
-      <c r="B14" s="109"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="42" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87" t="s">
+      <c r="B16" s="92"/>
+      <c r="C16" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87" t="s">
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87" t="s">
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87" t="s">
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="S16" s="91"/>
+      <c r="S16" s="93"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
       <c r="H17" s="43" t="s">
         <v>71</v>
       </c>
@@ -7292,12 +8306,12 @@
       <c r="K17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="92" t="s">
+      <c r="L17" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
       <c r="P17" s="43" t="s">
         <v>73</v>
       </c>
@@ -7312,92 +8326,92 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
       <c r="H18" s="14"/>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="45"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="48"/>
       <c r="I19" s="46"/>
       <c r="J19" s="47"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="51"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="53"/>
       <c r="I20" s="54"/>
       <c r="J20" s="52"/>
       <c r="K20" s="55"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="35"/>
       <c r="Q20" s="56"/>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="59"/>
       <c r="I21" s="60"/>
       <c r="J21" s="58"/>
       <c r="K21" s="59"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="61"/>
       <c r="R21" s="61"/>
@@ -7405,6 +8419,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:O19"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="A1:Q1"/>
@@ -7418,18 +8444,6 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{00F0F8F7-DC0F-4454-B174-288E79B7BE78}"/>
@@ -7489,73 +8503,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="96" t="str">
         <f>'Listado Objetos Dominio'!A7</f>
         <v>Inmueble</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="97" t="str">
         <f>'Listado Objetos Dominio'!B7</f>
         <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -7789,11 +8803,11 @@
       <c r="U8" s="36"/>
     </row>
     <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
@@ -7807,77 +8821,77 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="100" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
     </row>
     <row r="14" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="97"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="67" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="97"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="67" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87" t="s">
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87" t="s">
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87" t="s">
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87" t="s">
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="S17" s="91"/>
+      <c r="S17" s="93"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
       <c r="H18" s="43" t="s">
         <v>71</v>
       </c>
@@ -7890,12 +8904,12 @@
       <c r="K18" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="92" t="s">
+      <c r="L18" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
       <c r="P18" s="43" t="s">
         <v>73</v>
       </c>
@@ -7910,92 +8924,92 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="14"/>
       <c r="I19" s="12"/>
       <c r="J19" s="13"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="45"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="48"/>
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
       <c r="K20" s="49"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="51"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="53"/>
       <c r="I21" s="54"/>
       <c r="J21" s="52"/>
       <c r="K21" s="55"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="56"/>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="59"/>
       <c r="I22" s="60"/>
       <c r="J22" s="58"/>
       <c r="K22" s="59"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="61"/>
       <c r="R22" s="61"/>
@@ -8003,6 +9017,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="L20:O20"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="A1:Q1"/>
@@ -8017,18 +9043,6 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E9339FF0-C25B-4ACF-BE04-E905DF5A13F0}"/>

--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo Dominio Enriquecido ConjuntosResidenciales.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo Dominio Enriquecido ConjuntosResidenciales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFCD1E2-CB64-48B8-870C-3AE571A944AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3E5E15-548B-4991-8081-F53D9CA0428D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="3" activeTab="5" xr2:uid="{68A10BBB-2615-4E9A-8951-B88AC10A8A21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{68A10BBB-2615-4E9A-8951-B88AC10A8A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2188,7 +2188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="301">
   <si>
     <t>Referenciado</t>
   </si>
@@ -2418,18 +2418,6 @@
     <t>¿Qué hago?</t>
   </si>
   <si>
-    <t>Reponsabilidad 1</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 2</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 3</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 4</t>
-  </si>
-  <si>
     <t>alfanumerico</t>
   </si>
   <si>
@@ -2916,9 +2904,6 @@
     <t>Se debe asegurar que no exista otro administrador registrado con el mismo numero de contacto.</t>
   </si>
   <si>
-    <t>Asegurar que el identificador del Administrador que se desea registrar  no ha haya sido asignado previamente a otro conjunto residencial.</t>
-  </si>
-  <si>
     <t>Se debe asegurar que no exista otro administrador registrado con el mismo correo electronico.</t>
   </si>
   <si>
@@ -2934,12 +2919,6 @@
     <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un administrador que tiene el numero de contacto ya existente.</t>
   </si>
   <si>
-    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intente registrar un administrador que esta previamente registrado en otro conjunto residencial.</t>
-  </si>
-  <si>
-    <t>Detengo el proceso hasta que se ingrese  administrador que no este previamente asignado a otro conjunto residencial.</t>
-  </si>
-  <si>
     <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un administrador que tiene el correo electronico ya existente.</t>
   </si>
   <si>
@@ -2953,13 +2932,172 @@
   </si>
   <si>
     <t>No filtrar/No Listar</t>
+  </si>
+  <si>
+    <t>Acción dónde un administrador podrá crear un administrador</t>
+  </si>
+  <si>
+    <t>Acción de modificar los atributos de un administrador</t>
+  </si>
+  <si>
+    <t>Acción de eliminar un administrador de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Listado de todos las zonas comunes que cumplen con los filtros de consulta: 1. Devuelve vacio cuando no se cumplan parametros de consulta. 2.Devuelve el listado de las zonas comunes que cumplan con el filtro de consulta.</t>
+  </si>
+  <si>
+    <t>Acción de buscar la información asociada a una zona inmueble.</t>
+  </si>
+  <si>
+    <t>Acción dónde un administrador podrá crear una zona inmueble.</t>
+  </si>
+  <si>
+    <t>Acción de modificar los atributos de una zona inmueble.</t>
+  </si>
+  <si>
+    <t>Acción de eliminar una zona inmueble de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Admin-Pol0007</t>
+  </si>
+  <si>
+    <t>ZonCom-Pol0007</t>
+  </si>
+  <si>
+    <t>ZonInm-Pol0001</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información del nuevo zonaInmueble que sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>ZonInm-Pol0002</t>
+  </si>
+  <si>
+    <t>ZonInm-Pol0003</t>
+  </si>
+  <si>
+    <t>ZonInm-Pol0004</t>
+  </si>
+  <si>
+    <t>Se debe asegurar no exista una zona inmueble.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar una zona inmueble que tiene el identificador ya existente.</t>
+  </si>
+  <si>
+    <t>Continuo el proceso generando nuevos identificadores hasta asegurar que no esten asignados a otra zonaInmueble.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar una zona inmueble ya existente.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingresen datos valido para la creacion de la zona inmueble.</t>
+  </si>
+  <si>
+    <t>ZonInm-Pol0006</t>
+  </si>
+  <si>
+    <t>ZonInm-Pol0007</t>
+  </si>
+  <si>
+    <t>Filtro {ZonaInmueble.identificador}/Listar {ZonaInmueble.nombre}</t>
+  </si>
+  <si>
+    <t>Acción dónde un administrador podrá crear un inmueble.</t>
+  </si>
+  <si>
+    <t>Acción de buscar la información asociada a un inmueble.</t>
+  </si>
+  <si>
+    <t>Acción de modificar los atributos de un inmueble.</t>
+  </si>
+  <si>
+    <t>Acción de eliminar un inmueble de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Listado de todos los inmuebles que cumplen con los filtros de consulta: 1. Devuelve vacio cuandono se cumplan parametros de consulta. 2.Devuelve el listado de los inmuebles que cumplan con el filtro de consulta.</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0001</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0002</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0003</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0004</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información del inmueble que sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Se debe asegurar no exista un inmueble.</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un inmueble con el mismo número de inmueble  para un mismo conjunto residencial.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intente registrar una zona inmueble que esta previamente registrado en el conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Asegurar que el identificador del inmueble que se desea registrar no haya sido asignado previamente a otro inmueble.</t>
+  </si>
+  <si>
+    <t>Asegurar que el identificador del la zona del inmueble que se desea registrar no haya sido asignado previamente a otra zona inmueble.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un inmueble que tiene el identificador ya existente.</t>
+  </si>
+  <si>
+    <t>Continuo el proceso generando nuevos identificadores hasta asegurar que no esten asignados a otro Inmueble.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un inmueble ya existente.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingresen datos valido para la creacion de un inmueble.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intente registrar un inmueble que esta previamente registrado en otro inmueble.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingrese un inmueble que no este previamente asignado a otro inmueble.</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0006</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0007</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingrese una zona inmueble que no este previamente asignado en el conjunto residencial.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que los datos que se ingresaron no pertenecen a ninguna zona inmueble.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que los datos que se ingresaron no pertenecen a ningun administrador.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intente registrar un administrador que esta previamente registrado en el conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingrese  administrador que no este previamente asignado en el conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Asegurar que el identificador del Administrador que se desea registrar  no ha haya sido asignado previamente a el conjunto residencial.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que los datos que se ingresaron no pertenecen a ningun inmueble.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2994,15 +3132,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3083,7 +3212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -3562,12 +3691,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3630,18 +3877,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3657,9 +3892,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3693,9 +3925,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3711,9 +3940,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3729,24 +3955,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3768,6 +3985,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3789,6 +4033,153 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3798,7 +4189,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3810,17 +4207,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3831,48 +4225,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3903,155 +4255,182 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4460,19 +4839,19 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="70"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4480,7 +4859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4488,7 +4867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4496,52 +4875,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -4562,7 +4941,7 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4577,26 +4956,26 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -4610,7 +4989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
@@ -4620,12 +4999,12 @@
       <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="74" t="str">
+      <c r="D3" s="73" t="str">
         <f>$B$1</f>
         <v>Residentes</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -4635,9 +5014,9 @@
       <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="75"/>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D4" s="74"/>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
@@ -4647,9 +5026,9 @@
       <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="75"/>
-    </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="D5" s="74"/>
+    </row>
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
@@ -4659,9 +5038,9 @@
       <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="75"/>
-    </row>
-    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="D6" s="74"/>
+    </row>
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -4671,9 +5050,9 @@
       <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="76"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="75"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4699,107 +5078,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52572D8B-2E5B-40A3-93D4-C6D8A4DFB5A3}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.7109375" style="8" customWidth="1"/>
-    <col min="19" max="19" width="25.140625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.6640625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="25.109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="96" t="str">
+      <c r="B2" s="113" t="str">
         <f>'Listado Objetos Dominio'!A3</f>
         <v>ConjuntoResidencial</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="97" t="str">
+      <c r="B3" s="114" t="str">
         <f>'Listado Objetos Dominio'!B3</f>
         <v>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
@@ -4851,846 +5230,828 @@
       <c r="Q4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="153" t="str">
+      <c r="R4" s="64" t="str">
         <f>A21</f>
         <v>Registrar</v>
       </c>
-      <c r="S4" s="155" t="str">
+      <c r="S4" s="66" t="str">
         <f>A25</f>
         <v>Buscar</v>
       </c>
-      <c r="T4" s="157" t="str">
+      <c r="T4" s="68" t="str">
         <f>A26</f>
         <v>Modificar</v>
       </c>
-      <c r="U4" s="156" t="str">
+      <c r="U4" s="67" t="str">
         <f>A27</f>
         <v>Eliminar</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="25">
         <v>32</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="25">
         <v>32</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="29" t="s">
+      <c r="M5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="29" t="s">
+      <c r="O5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="25">
+        <v>3</v>
+      </c>
+      <c r="D6" s="25">
+        <v>50</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="25">
+        <v>14</v>
+      </c>
+      <c r="D7" s="25">
+        <v>200</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <v>85</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25">
+        <v>30</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="R5" s="154" t="s">
+      <c r="R9" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U9" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="25">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25">
+        <v>10</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="R10" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S10" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="T10" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="U10" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1</v>
+      </c>
+      <c r="D11" s="25">
+        <v>50</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="R11" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S12" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="E14" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="116" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="116"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="119"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" s="110"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="121"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="77"/>
+      <c r="C21" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="S21" s="60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="S22" s="60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="78"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="S23" s="60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="S24" s="60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="98"/>
+      <c r="C25" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q25" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="R25" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="S25" s="63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="101"/>
+      <c r="C26" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="48"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q26" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="U5" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="29">
-        <v>3</v>
-      </c>
-      <c r="D6" s="29">
-        <v>50</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="R6" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S6" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="T6" s="35" t="s">
+      <c r="R26" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="U6" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="29">
-        <v>14</v>
-      </c>
-      <c r="D7" s="29">
-        <v>200</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="R7" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S7" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U7" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="29">
-        <v>1</v>
-      </c>
-      <c r="D8" s="29">
-        <v>85</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="R8" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S8" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U8" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="29">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29">
-        <v>30</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="R9" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U9" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="29">
-        <v>7</v>
-      </c>
-      <c r="D10" s="29">
-        <v>10</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="R10" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="29">
-        <v>1</v>
-      </c>
-      <c r="D11" s="29">
-        <v>50</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="R11" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S11" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="T11" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S12" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="T12" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="98" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="E14" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="99" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="102"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="S19" s="93"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q20" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="S20" s="44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="140" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="141"/>
-      <c r="C21" s="125" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21" s="134" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="S21" s="120" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="142"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S22" s="120" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="142"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="S23" s="120" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="144"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="S24" s="120" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="147" t="s">
+      <c r="S26" s="84" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="122" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="123"/>
+      <c r="C27" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="148"/>
-      <c r="C25" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="K25" s="49" t="s">
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="L25" s="91" t="s">
+      <c r="J27" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q25" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="R25" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="S25" s="146" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="149" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="150"/>
-      <c r="C26" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="K26" s="55"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q26" s="118" t="s">
-        <v>199</v>
-      </c>
-      <c r="R26" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="S26" s="123" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="151" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="152"/>
-      <c r="C27" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="J27" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="K27" s="59"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="124"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="124"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A21:B24"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="L21:O24"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="C21:G24"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="L20:O20"/>
     <mergeCell ref="A1:Q1"/>
@@ -5707,6 +6068,24 @@
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="C19:G20"/>
     <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="A21:B24"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="L21:O24"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="C21:G24"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="L27:O27"/>
@@ -5737,107 +6116,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC27993B-5D8F-4859-AF5A-93E173C14E9E}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+    <sheetView topLeftCell="P24" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.7109375" style="8" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.42578125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="25.42578125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.6640625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.44140625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="25.44140625" style="8" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="96" t="str">
+      <c r="B2" s="113" t="str">
         <f>'Listado Objetos Dominio'!A4</f>
         <v>ZonaComun</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="97" t="str">
+      <c r="B3" s="114" t="str">
         <f>'Listado Objetos Dominio'!B4</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y poder usarlos.</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
@@ -5889,807 +6268,796 @@
       <c r="Q4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="153" t="str">
+      <c r="R4" s="64" t="str">
         <f>A21</f>
         <v>Registrar</v>
       </c>
-      <c r="S4" s="155" t="str">
+      <c r="S4" s="66" t="str">
         <f>A25</f>
         <v>Buscar</v>
       </c>
-      <c r="T4" s="157" t="str">
+      <c r="T4" s="68" t="str">
         <f>A26</f>
         <v>Modificar</v>
       </c>
-      <c r="U4" s="156" t="str">
+      <c r="U4" s="67" t="str">
         <f>A27</f>
         <v>Eliminar</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="25">
         <v>32</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="25">
         <v>32</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="29" t="s">
+      <c r="M5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="29" t="s">
+      <c r="O5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="R5" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>50</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>50</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="R7" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="R8" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="154" t="s">
+      <c r="R9" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U9" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="R10" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S10" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="T10" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="U10" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1</v>
+      </c>
+      <c r="D11" s="25">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="R11" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S12" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="140" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="141"/>
+      <c r="C14" s="142"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="144"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" s="110"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="121"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="77"/>
+      <c r="C21" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="S21" s="60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="S22" s="60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="78"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="S23" s="60" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="S24" s="60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="138"/>
+      <c r="C25" s="139" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q25" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="R25" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="S25" s="63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="125" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="126"/>
+      <c r="C26" s="127" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" s="48"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q26" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="U5" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="29">
-        <v>1</v>
-      </c>
-      <c r="D6" s="29">
-        <v>50</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="R6" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S6" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="T6" s="35" t="s">
+      <c r="R26" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="U6" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29">
-        <v>50</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="R7" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S7" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="T7" s="35" t="s">
+      <c r="S26" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="131" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="132"/>
+      <c r="C27" s="133" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" s="51"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="194" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q27" s="195" t="s">
+        <v>195</v>
+      </c>
+      <c r="R27" s="195" t="s">
         <v>196</v>
       </c>
-      <c r="U7" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="R8" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S8" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U8" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="R9" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U9" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="R10" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="29">
-        <v>1</v>
-      </c>
-      <c r="D11" s="29">
-        <v>5000</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="R11" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S11" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="T11" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="R12" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S12" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="T12" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="110" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="S19" s="93"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q20" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="S20" s="44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="140" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="141"/>
-      <c r="C21" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="I21" s="134" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="121" t="s">
-        <v>212</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="S21" s="120" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="142"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="S22" s="120" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="142"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="S23" s="120" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="144"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="S24" s="120" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90" t="s">
-        <v>222</v>
-      </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="K25" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="L25" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q25" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="R25" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="S25" s="146" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="I26" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="K26" s="55"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="162"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q26" s="118" t="s">
-        <v>199</v>
-      </c>
-      <c r="R26" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="S26" s="123" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K27" s="59"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="124"/>
+      <c r="S27" s="196" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L21:O24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="C21:G24"/>
-    <mergeCell ref="A21:B24"/>
+  <mergeCells count="28">
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="L20:O20"/>
     <mergeCell ref="A1:Q1"/>
@@ -6703,6 +7071,21 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L21:O24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="C21:G24"/>
+    <mergeCell ref="A21:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{B8AB2723-0DBB-4F87-B341-FF92A393E7BB}"/>
@@ -6732,1085 +7115,1070 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F029C1A4-1158-48DA-9920-018E5820E9AF}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView topLeftCell="N17" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="42.85546875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="36.28515625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="40.85546875" style="8" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="42.88671875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="36.33203125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="40.88671875" style="8" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="96" t="str">
+      <c r="B2" s="113" t="str">
         <f>'Listado Objetos Dominio'!A5</f>
         <v>Administrador</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="97" t="str">
+      <c r="B3" s="114" t="str">
         <f>'Listado Objetos Dominio'!B5</f>
         <v>Objeto de dominio que representa el Administrador encargado de hacer la creación o gestión de las zonas comunes y la gestión de residentes y sus respectivas reservas en caso de ser necesario.</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="153" t="str">
+      <c r="R4" s="64" t="str">
         <f>A23</f>
         <v>Registrar</v>
       </c>
-      <c r="S4" s="155" t="str">
+      <c r="S4" s="66" t="str">
         <f>A28</f>
         <v>Buscar</v>
       </c>
-      <c r="T4" s="157" t="str">
+      <c r="T4" s="68" t="str">
         <f>A29</f>
         <v>Modificar</v>
       </c>
-      <c r="U4" s="156" t="str">
+      <c r="U4" s="67" t="str">
         <f>A30</f>
         <v>Eliminar</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="25">
         <v>32</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="25">
         <v>32</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="29" t="s">
+      <c r="M5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="29" t="s">
+      <c r="O5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>50</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>50</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <v>50</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25">
+        <v>20</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U9" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="25">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25">
+        <v>10</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="R10" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U10" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="25">
+        <v>11</v>
+      </c>
+      <c r="D11" s="25">
+        <v>100</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="25">
+        <v>8</v>
+      </c>
+      <c r="D12" s="25">
+        <v>30</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="R5" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S5" s="34" t="s">
+      <c r="R12" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S12" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="T12" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="T5" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="U5" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="29">
-        <v>1</v>
-      </c>
-      <c r="D6" s="29">
-        <v>50</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S6" s="34" t="s">
+      <c r="U12" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="T6" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="E15" s="115" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="I15" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29">
-        <v>50</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="R7" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S7" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U7" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="29">
-        <v>1</v>
-      </c>
-      <c r="D8" s="29">
-        <v>50</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S8" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U8" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="29">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29">
-        <v>20</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="R9" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U9" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="I17" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="29">
-        <v>7</v>
-      </c>
-      <c r="D10" s="29">
-        <v>10</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="R10" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="29">
-        <v>11</v>
-      </c>
-      <c r="D11" s="29">
-        <v>100</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="R11" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S11" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="T11" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="29">
-        <v>8</v>
-      </c>
-      <c r="D12" s="29">
-        <v>30</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="R12" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="S12" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="T12" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="E15" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="I15" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="39" t="s">
+    </row>
+    <row r="18" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="116"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="117"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="117"/>
+    </row>
+    <row r="19" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="116"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="117"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="117"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="39" t="s">
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="S21" s="110"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="121"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="39" t="s">
+      <c r="K22" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="99" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" s="100" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="100"/>
-    </row>
-    <row r="19" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="100"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92" t="s">
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="S21" s="93"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q22" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="43" t="s">
+      <c r="R22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="S22" s="44" t="s">
+      <c r="S22" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="140" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="141"/>
-      <c r="C23" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="74" t="str">
+    <row r="23" spans="1:19" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="73" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosAdministrador</v>
       </c>
-      <c r="I23" s="134" t="str">
+      <c r="I23" s="107" t="str">
         <f>B2</f>
         <v>Administrador</v>
       </c>
-      <c r="J23" s="121" t="str">
+      <c r="J23" s="104" t="str">
         <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva ",B2,)</f>
         <v>Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva Administrador</v>
       </c>
       <c r="K23" s="16"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="127"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="88"/>
       <c r="P23" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="S23" s="60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="S24" s="60" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="S25" s="60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="S26" s="60" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="80"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="Q23" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="S23" s="120" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="142"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="R24" s="13" t="s">
+      <c r="Q27" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="S27" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="S24" s="120" t="s">
+    </row>
+    <row r="28" spans="1:19" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="138"/>
+      <c r="C28" s="139" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="142"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="S25" s="120" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="142"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="R26" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="S26" s="120" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="144"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="S27" s="120" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90" t="s">
-        <v>252</v>
-      </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="48" t="str">
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="42" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosAdministrador</v>
       </c>
-      <c r="I28" s="46" t="str">
+      <c r="I28" s="40" t="str">
         <f>B2</f>
         <v>Administrador</v>
       </c>
-      <c r="J28" s="47" t="str">
+      <c r="J28" s="41" t="str">
         <f>_xlfn.CONCAT("Corresponde a un objeto que contiene los filtros de consulta de ",B2," de un conjunto residencial.")</f>
         <v>Corresponde a un objeto que contiene los filtros de consulta de Administrador de un conjunto residencial.</v>
       </c>
-      <c r="K28" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="L28" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q28" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="R28" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="S28" s="146" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="53" t="str">
+      <c r="K28" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q28" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="R28" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="S28" s="63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="125" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="126"/>
+      <c r="C29" s="127" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="46" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosAdministrador</v>
       </c>
-      <c r="I29" s="54" t="str">
+      <c r="I29" s="47" t="str">
         <f>B2</f>
         <v>Administrador</v>
       </c>
-      <c r="J29" s="52" t="str">
+      <c r="J29" s="45" t="str">
         <f>_xlfn.CONCAT("Corresponde a los datos que se van a modificar de la ",B2)</f>
         <v>Corresponde a los datos que se van a modificar de la Administrador</v>
       </c>
-      <c r="K29" s="55"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q29" s="118" t="s">
-        <v>199</v>
-      </c>
-      <c r="R29" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="S29" s="123" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
-        <v>231</v>
-      </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="69" t="s">
+      <c r="K29" s="48"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q29" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="R29" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="S29" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="131" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="132"/>
+      <c r="C30" s="133" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="164" t="s">
+      <c r="I30" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="58" t="str">
-        <f>_xlfn.CONCAT("Corresponde al identificador de la ",B2,"  que se quiere dar de baja.")</f>
-        <v>Corresponde al identificador de la Administrador  que se quiere dar de baja.</v>
-      </c>
-      <c r="K30" s="59"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="160"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="124"/>
+      <c r="J30" s="50" t="str">
+        <f>_xlfn.CONCAT("Corresponde al identificador del ",B2,"  que se quiere dar de baja.")</f>
+        <v>Corresponde al identificador del Administrador  que se quiere dar de baja.</v>
+      </c>
+      <c r="K30" s="51"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="194" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q30" s="195" t="s">
+        <v>195</v>
+      </c>
+      <c r="R30" s="195" t="s">
+        <v>296</v>
+      </c>
+      <c r="S30" s="196" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="A23:B27"/>
-    <mergeCell ref="C23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="L23:O27"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:G22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:O21"/>
+  <mergeCells count="37">
+    <mergeCell ref="G17:G19"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="L22:O22"/>
@@ -7827,7 +8195,26 @@
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="J17:J19"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="L23:O27"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="A23:B27"/>
+    <mergeCell ref="C23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="L30:O30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{B1A972F6-B36A-42D4-994E-AD97A6BC793F}"/>
@@ -7843,9 +8230,9 @@
     <hyperlink ref="A28:B28" location="Administrador!S4" display="Buscar" xr:uid="{31D84E55-60E4-4964-BD75-688E6B3AA8DE}"/>
     <hyperlink ref="A30:B30" location="Administrador!U4" display="Eliminar" xr:uid="{2AA4DF1F-625F-4C4E-8D0C-2CA1673BB288}"/>
     <hyperlink ref="A29:B29" location="Administrador!T4" display="Modificar" xr:uid="{CF850717-498C-464F-B867-4F9FB8EE321C}"/>
-    <hyperlink ref="I23:I27" location="ZonaComun!A1" display="ZonaComun" xr:uid="{16F47BC3-CD12-4E4E-A360-3F34AF557638}"/>
-    <hyperlink ref="I28" location="ZonaComun!A1" display="ZonaComun" xr:uid="{11F6F351-E9CE-4AFE-81AB-5676EE7E2B50}"/>
-    <hyperlink ref="I29" location="ZonaComun!A1" display="ZonaComun" xr:uid="{48580169-E73F-4731-A7FA-2B061D25D9D8}"/>
+    <hyperlink ref="I23:I27" location="Administrador!A1" display="Administrador!A1" xr:uid="{16F47BC3-CD12-4E4E-A360-3F34AF557638}"/>
+    <hyperlink ref="I28" location="Administrador!A1" display="Administrador!A1" xr:uid="{11F6F351-E9CE-4AFE-81AB-5676EE7E2B50}"/>
+    <hyperlink ref="I29" location="Administrador!A1" display="Administrador!A1" xr:uid="{48580169-E73F-4731-A7FA-2B061D25D9D8}"/>
     <hyperlink ref="A23:B27" location="Administrador!R4" display="Registrar" xr:uid="{5890391C-93D0-4DAA-BE62-8BB52A3A1FD2}"/>
     <hyperlink ref="S4" location="Administrador!A27" display="Administrador!A27" xr:uid="{5AB73F63-7E04-4540-B1C0-05CA4488DD95}"/>
     <hyperlink ref="T4" location="Administrador!A29" display="Administrador!A29" xr:uid="{56DCA589-D5C2-4542-9274-4B3FED101902}"/>
@@ -7859,109 +8246,109 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CF9007-2408-46A6-B9E2-87DBBD723E5F}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A14"/>
+    <sheetView topLeftCell="Q15" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="96" t="str">
+      <c r="B2" s="113" t="str">
         <f>'Listado Objetos Dominio'!A6</f>
         <v>ZonaInmueble</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="97" t="str">
+      <c r="B3" s="114" t="str">
         <f>'Listado Objetos Dominio'!B6</f>
         <v>Objeto de dominio que representa una zona de inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (torre, bloque, lote) que comparten una ubicación fisica y caracteristicas comunes dentro del conjunto.</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
@@ -8013,424 +8400,618 @@
       <c r="Q4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="24" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="S4" s="25" t="str">
-        <f>A19</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="T4" s="26" t="str">
-        <f>A20</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="U4" s="27" t="str">
-        <f>A21</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="R4" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="S4" s="66" t="str">
+        <f>A22</f>
+        <v>Buscar</v>
+      </c>
+      <c r="T4" s="68" t="str">
+        <f>A23</f>
+        <v>Modificar</v>
+      </c>
+      <c r="U4" s="67" t="str">
+        <f>A24</f>
+        <v>Eliminar</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="25">
         <v>32</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="25">
         <v>32</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="29" t="s">
+      <c r="M5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="29" t="s">
+      <c r="O5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="36"/>
-    </row>
-    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="Q5" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="25">
+        <v>5</v>
+      </c>
+      <c r="D6" s="25">
+        <v>6</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>20</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="R7" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S8" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="140" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="142"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="29">
-        <v>5</v>
-      </c>
-      <c r="D6" s="29">
-        <v>6</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36"/>
-    </row>
-    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29">
-        <v>20</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B12" s="145" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="187" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+    </row>
+    <row r="13" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="148"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="185"/>
+    </row>
+    <row r="14" spans="1:21" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="149"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
-    </row>
-    <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="39" t="s">
+    </row>
+    <row r="15" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="173"/>
+      <c r="C16" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="114"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92" t="s">
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="168" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="170"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="168" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="169"/>
+      <c r="P16" s="168" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="169"/>
+      <c r="R16" s="168" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" s="182"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="178"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="S16" s="93"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="43" t="s">
+      <c r="K17" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" s="94" t="s">
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="43" t="s">
+      <c r="R17" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="S17" s="44" t="s">
+      <c r="S17" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="87"/>
+    <row r="18" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="188" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="189"/>
+      <c r="C18" s="197" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="73" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosZonaInmueble</v>
+      </c>
+      <c r="I18" s="203" t="str">
+        <f>B2</f>
+        <v>ZonaInmueble</v>
+      </c>
+      <c r="J18" s="104" t="str">
+        <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva ",B2,)</f>
+        <v>Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva ZonaInmueble</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="86"/>
       <c r="M18" s="87"/>
       <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="45"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="S18" s="60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="190"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
       <c r="O19" s="91"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="51"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="57"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="62"/>
+      <c r="P19" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="S19" s="60" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="190"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="183"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="S20" s="60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="190"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="S21" s="60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="167"/>
+      <c r="C22" s="163" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="42" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosZonaInmueble</v>
+      </c>
+      <c r="I22" s="40" t="str">
+        <f>B2</f>
+        <v>ZonaInmueble</v>
+      </c>
+      <c r="J22" s="41" t="str">
+        <f>_xlfn.CONCAT("Corresponde a un objeto que contiene los filtros de consulta de ",B2," de un conjunto residencial.")</f>
+        <v>Corresponde a un objeto que contiene los filtros de consulta de ZonaInmueble de un conjunto residencial.</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="R22" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="S22" s="63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="159"/>
+      <c r="C23" s="155" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="46" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosZonaInmueble</v>
+      </c>
+      <c r="I23" s="47" t="str">
+        <f>B2</f>
+        <v>ZonaInmueble</v>
+      </c>
+      <c r="J23" s="45" t="str">
+        <f>_xlfn.CONCAT("Corresponde a los datos que se van a modificar de la ",B2)</f>
+        <v>Corresponde a los datos que se van a modificar de la ZonaInmueble</v>
+      </c>
+      <c r="K23" s="48"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="184" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q23" s="192" t="s">
+        <v>195</v>
+      </c>
+      <c r="R23" s="192" t="s">
+        <v>295</v>
+      </c>
+      <c r="S23" s="193" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="153" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="154"/>
+      <c r="C24" s="150" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="50" t="str">
+        <f>_xlfn.CONCAT("Corresponde al identificador de la ",$B$2,"  que se quiere dar de baja.")</f>
+        <v>Corresponde al identificador de la ZonaInmueble  que se quiere dar de baja.</v>
+      </c>
+      <c r="K24" s="51"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q24" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="R24" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="S24" s="52" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
+  <mergeCells count="28">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:O23"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="A1:Q1"/>
@@ -8444,23 +9025,32 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A18:B21"/>
+    <mergeCell ref="C18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="L18:O21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{00F0F8F7-DC0F-4454-B174-288E79B7BE78}"/>
-    <hyperlink ref="I21" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{B1A97C9C-C83A-4D55-A9B0-1D60449F75B0}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{37C9D586-4B87-4226-A596-5683CA686980}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{A35E05B7-9391-46FD-8A79-D27C57DCAAB9}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{7915AEF6-1E82-47F9-91CD-67A1A7F4F85B}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{F7F334CE-4608-43CF-A5A9-8541D371EE76}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{964D003E-2BB6-405E-A0F8-F49F3B53B497}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{24876CAE-8400-4252-AB08-3D7F112F351C}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{FE046C0A-0C4A-41CA-9FC4-7E36C88D1A45}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EA25E89F-32D4-407D-BD2D-F7CD9BF1A0B0}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{F271AD30-A9F0-4174-9A8D-FCEC7C058F01}"/>
     <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{8FADB08A-51CB-4C9D-8EF5-9FFF82F19048}"/>
     <hyperlink ref="C12" location="ZonaInmueble!A6" display="tipoZonaInmueble" xr:uid="{C5648886-579E-46F8-8D39-7933B261A82D}"/>
     <hyperlink ref="C14" location="ConjuntoResidencial!A1" display="conjuntoResidencial" xr:uid="{B68B4258-3795-4D5F-8868-A31B3A816921}"/>
     <hyperlink ref="C13" location="ZonaInmueble!A7" display="numeroZonaInmueble" xr:uid="{6EA00C9C-0169-414A-AF90-6D8981E22F2A}"/>
+    <hyperlink ref="I24" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A567B94B-2F4D-4C1A-8133-5E84E667896B}"/>
+    <hyperlink ref="A22:B22" location="ZonaInmueble!S4" display="Buscar" xr:uid="{2DC925AE-7F7C-461B-83CD-1DC46E27E03C}"/>
+    <hyperlink ref="A24:B24" location="ZonaInmueble!U4" display="Eliminar" xr:uid="{F1AF088E-6099-49D5-BB64-D1492B6CA746}"/>
+    <hyperlink ref="A23:B23" location="ZonaInmueble!T4" display="Modificar" xr:uid="{F9AF5C18-F004-4C95-B024-9E465CD892A1}"/>
+    <hyperlink ref="I18:I21" location="ZonaComun!A1" display="ZonaComun" xr:uid="{2B1CE184-5CEB-4D5B-A90F-D1496C6EB55C}"/>
+    <hyperlink ref="I22" location="ZonaComun!A1" display="ZonaComun" xr:uid="{2C544746-C280-4927-A821-13625C6CF1EA}"/>
+    <hyperlink ref="I23" location="ZonaComun!A1" display="ZonaComun" xr:uid="{ECAF3956-7FC6-4BCD-A0F7-505053773F33}"/>
+    <hyperlink ref="A18:B21" location="ZonaInmueble!R4" display="Registrar" xr:uid="{EF483C4F-15B3-4A34-AB8F-E310131FE237}"/>
+    <hyperlink ref="T4" location="ZonaInmueble!A24" display="ZonaInmueble!A24" xr:uid="{3BCB2C59-635E-47FB-9C53-ED151D71767D}"/>
+    <hyperlink ref="U4" location="ZonaInmueble!A25" display="ZonaInmueble!A25" xr:uid="{4E678293-4792-407F-B938-93AAF1F4931C}"/>
+    <hyperlink ref="R4" location="ZonaInmueble!A18" display="Registrar" xr:uid="{BEB51287-91B0-4961-9E2D-3CB1ECF3967D}"/>
+    <hyperlink ref="S4" location="ZonaInmueble!A23" display="ZonaInmueble!A23" xr:uid="{59C5E80A-C9EA-4BE8-8DD8-754075C87426}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8469,109 +9059,109 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DC4352-D389-4296-8885-24C883779FA5}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.21875" style="205" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="96" t="str">
+      <c r="B2" s="113" t="str">
         <f>'Listado Objetos Dominio'!A7</f>
         <v>Inmueble</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="97" t="str">
+      <c r="B3" s="114" t="str">
         <f>'Listado Objetos Dominio'!B7</f>
         <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
@@ -8593,7 +9183,7 @@
       <c r="G4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="23" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="22" t="s">
@@ -8623,412 +9213,605 @@
       <c r="Q4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="24" t="str">
-        <f>A19</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="S4" s="25" t="str">
-        <f>A20</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="T4" s="26" t="str">
-        <f>A21</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="U4" s="27" t="str">
-        <f>A22</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="R4" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="S4" s="66" t="str">
+        <f>A23</f>
+        <v>Buscar</v>
+      </c>
+      <c r="T4" s="68" t="str">
+        <f>A24</f>
+        <v>Modificar</v>
+      </c>
+      <c r="U4" s="67" t="str">
+        <f>A25</f>
+        <v>Eliminar</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="25">
         <v>32</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="25">
         <v>32</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="29" t="s">
+      <c r="M5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="29" t="s">
+      <c r="O5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="R5" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>20</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>50</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="S8" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="115" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="36"/>
-    </row>
-    <row r="6" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="29">
-        <v>1</v>
-      </c>
-      <c r="D6" s="29">
-        <v>20</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29">
-        <v>50</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="B12" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
+    </row>
+    <row r="14" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
-    </row>
-    <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="39" t="s">
+    </row>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="173"/>
+      <c r="C17" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="100" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-    </row>
-    <row r="14" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92" t="s">
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="168" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="170"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="168" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="168" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="168" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" s="182"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="178"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="206" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="S17" s="93"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="43" t="s">
+      <c r="K18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="94" t="s">
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q18" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="43" t="s">
+      <c r="R18" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="S18" s="44" t="s">
+      <c r="S18" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="87"/>
+    <row r="19" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="188" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="189"/>
+      <c r="C19" s="197" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="207" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosInmueble</v>
+      </c>
+      <c r="I19" s="203" t="str">
+        <f>B2</f>
+        <v>Inmueble</v>
+      </c>
+      <c r="J19" s="104" t="str">
+        <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva ",B2,)</f>
+        <v>Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva Inmueble</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="86"/>
       <c r="M19" s="87"/>
       <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="45"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="S19" s="60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="190"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="183"/>
       <c r="O20" s="91"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="51"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="57"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="62"/>
+      <c r="P20" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="S20" s="60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="190"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="S21" s="60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="190"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="S22" s="60" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="167"/>
+      <c r="C23" s="163" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="41" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosInmueble</v>
+      </c>
+      <c r="I23" s="40" t="str">
+        <f>B2</f>
+        <v>Inmueble</v>
+      </c>
+      <c r="J23" s="41" t="str">
+        <f>_xlfn.CONCAT("Corresponde a un objeto que contiene los filtros de consulta de ",B2," de un conjunto residencial.")</f>
+        <v>Corresponde a un objeto que contiene los filtros de consulta de Inmueble de un conjunto residencial.</v>
+      </c>
+      <c r="K23" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" s="160" t="s">
+        <v>275</v>
+      </c>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q23" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="R23" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="S23" s="63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="159"/>
+      <c r="C24" s="155" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="45" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosInmueble</v>
+      </c>
+      <c r="I24" s="47" t="str">
+        <f>B2</f>
+        <v>Inmueble</v>
+      </c>
+      <c r="J24" s="45" t="str">
+        <f>_xlfn.CONCAT("Corresponde a los datos que se van a modificar de la ",B2)</f>
+        <v>Corresponde a los datos que se van a modificar de la Inmueble</v>
+      </c>
+      <c r="K24" s="48"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="184" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q24" s="192" t="s">
+        <v>195</v>
+      </c>
+      <c r="R24" s="192" t="s">
+        <v>300</v>
+      </c>
+      <c r="S24" s="193" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="153" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="154"/>
+      <c r="C25" s="150" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="50" t="str">
+        <f>_xlfn.CONCAT("Corresponde al identificador de la ",$B$2,"  que se quiere dar de baja.")</f>
+        <v>Corresponde al identificador de la Inmueble  que se quiere dar de baja.</v>
+      </c>
+      <c r="K25" s="51"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q25" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="R25" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="S25" s="52" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
+  <mergeCells count="29">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="A1:Q1"/>
@@ -9043,22 +9826,31 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A19:B22"/>
+    <mergeCell ref="C19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="L19:O22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E9339FF0-C25B-4ACF-BE04-E905DF5A13F0}"/>
-    <hyperlink ref="I22" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A2355390-B59E-4B64-803C-8950E1ACE2A1}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{614E19D6-86CC-4C21-B110-450E872E45A2}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{24B42AB0-5A9C-45D7-857D-2D7E49EEC1AE}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{2AF0E4E5-1098-4DDC-8400-62FF463E3B3B}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{76DDE84B-FE62-46A1-9EEF-55E088973545}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{388A7F4E-7B81-48A0-954A-AFCBE3D5DCF7}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{6DEACDC8-EFC1-4519-9D4F-542DDE4E1A2F}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{9141FBB8-0DE7-4DC6-B781-EC38C33D40AE}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{5A7607C3-0389-4B95-AB93-7F28B22319AA}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{DE17DB07-7B59-4592-8688-4B9A5349E2D3}"/>
     <hyperlink ref="C15" location="Inmueble!A8" display="ZonaInmueble" xr:uid="{C571430A-8ECA-413C-A66B-DDD9426F086A}"/>
     <hyperlink ref="C14" location="Inmueble!A7" display="numeroVivienda" xr:uid="{B7B3829C-DC97-40A3-AF96-5812FAD0D9A9}"/>
     <hyperlink ref="C12" location="Inmueble!A6" display="tipoInmueble" xr:uid="{039BA121-0EF3-44F9-94D9-D25A280F037D}"/>
+    <hyperlink ref="T4" location="Inmueble!A24" display="Inmueble!A24" xr:uid="{5A95489C-52CD-4AF1-9D9B-DD8190E15C15}"/>
+    <hyperlink ref="U4" location="Inmueble!A25" display="Inmueble!A25" xr:uid="{C104989B-B8F3-44EC-BCC9-B0CA33EF4544}"/>
+    <hyperlink ref="R4" location="Inmueble!A19" display="Registrar" xr:uid="{E17DFCB7-EC80-4DC6-BE99-1050E260D9BF}"/>
+    <hyperlink ref="S4" location="Inmueble!A23" display="Inmueble!A23" xr:uid="{270D09D5-C76E-4D58-B3FB-467EE499AA70}"/>
+    <hyperlink ref="I25" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{81FD16A9-AC29-4E02-AAFC-00613E9A255C}"/>
+    <hyperlink ref="A23:B23" location="Inmueble!S4" display="Buscar" xr:uid="{3883065D-2BA0-4C2E-8F43-65136CB444ED}"/>
+    <hyperlink ref="A25:B25" location="Inmueble!U4" display="Eliminar" xr:uid="{E3B72FD4-B909-4979-9E52-A8219FA81497}"/>
+    <hyperlink ref="A24:B24" location="Inmueble!T4" display="Modificar" xr:uid="{3B5C1864-9A7F-450E-A407-B20F6002C301}"/>
+    <hyperlink ref="I19:I22" location="ZonaComun!A1" display="ZonaComun" xr:uid="{8B328302-C7FC-4BF7-80C8-65B05F2CCB49}"/>
+    <hyperlink ref="I23" location="ZonaComun!A1" display="ZonaComun" xr:uid="{668333A2-C7F2-44D9-9D05-E8612FFB87C7}"/>
+    <hyperlink ref="I24" location="ZonaComun!A1" display="ZonaComun" xr:uid="{8D561A5A-EF96-49C5-BFA4-4EEE41C48FE5}"/>
+    <hyperlink ref="A19:B22" location="Inmueble!R4" display="Registrar" xr:uid="{BA903725-5FF4-4858-B655-18DEF03F01BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
